--- a/data/genius_Bushido_Carlo-cokxxx-nutten-3.xlsx
+++ b/data/genius_Bushido_Carlo-cokxxx-nutten-3.xlsx
@@ -407,7 +407,8 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>*Person schnupft Kokain*</t>
+          <t xml:space="preserve">*Person schnupft Kokain*
+</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -459,8 +460,50 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[Part 1]Ihr seid alle Clowns, ich lache über eure MachtwechselFotzen, die auf hart machen, Rapper sind wie Knastlesben180km/h auf meinem Yayo-TripUnd das letzte, was du siehst, ist mein XenonlichtKomm in meine Stadt und senk' deinen KopfHier regieren Gangs, keine CopsFinger weg vom Mic, es ist Gangster, wenn ich rappe, du KekIch hab Kugeln für euch alle, es macht: Rät-Tät-Tät-TätMeine Stadt hat keinen Platz für dich in deiner PromophaseUnd du siehst hingeschissen aus, so wie Jokos HaareLass mal deine Nutte ficken, mach' nicht auf BeschützerSpinne 44 und wir ficken eure MütterNazar rennt, wenn der Benz um die Ecke kommt2 Kugeln in die Kniescheiben und du leckst BetonIhr Hurensöhne macht auf best friendsIhr müsst alle im Café antanzen, es ist "Let's Dance"[Hook]Streit heißt: "Mic weg, klär' es mit der Faust"Zeig' mir deine Muskeln, ich lache dich ausCarlo Cokxxx Nutten, fick dein' Waffenschein, du KekStiche in die Lunge, es ist Butterfly Effect, yeahStreit heißt: "Mic weg, klär' es mit der Faust"Zeig' mir deine Muskeln, ich lache dich ausCarlo Cokxxx Nutten, fick dein' Waffenschein, du KekStiche in die Lunge, es ist Butterfly Effect, yeah
-[Part 2]Sonny Black, ich ticke braune Steine aus der JackentascheUnd das Battle ist gewonnen, wenn ich dein' Nacken klatscheCCN ist wie ein Drogendealer-StarterkitIch mach', dass sich [Ruhe], diese Fotze jetzt die Arme ritztIch bring' den einzig wahren Ghettorap auf deutschDeine Kettenraucher-Mutter hängt im Lesbenchat und säuftDas hier ist für Rapper wie ein SpießrutenlaufStellt euch in 'ner Schießbude auf, ihr PappnasenCarlo-Cokxxx-Flavour, back to the rootsWährend [Ruhe] Mami mit dem Sextouri schmust, yeahEs ist Sonny Black, Highlander, BraveheartErsguterjunge ist der Schwanz in Kays ArschIch bin Oldschool wie Afrika BambaataaKlatsche an der Tanke deinen Truckerfahrer-VaterIch ficke deine Mutter, die im Wohnwagen blästUnd danach für 'nen Zwanni die Tarotkarten legt, yeah[Hook]Streit heißt: "Mic weg, klär' es mit der Faust"Zeig' mir deine Muskeln, ich lache dich ausCarlo Cokxxx Nutten, fick dein' Waffenschein, du KekStiche in die Lunge, es ist Butterfly Effect, yeahStreit heißt: "Mic weg, klär' es mit der Faust"Zeig' mir deine Muskeln, ich lache dich ausCarlo Cokxxx Nutten, fick dein' Waffenschein, du KekStiche in die Lunge, es ist Butterfly Effect, yeah</t>
+          <t>[Part 1]
+Ihr seid alle Clowns, ich lache über eure Machtwechsel
+Fotzen, die auf hart machen, Rapper sind wie Knastlesben
+180km/h auf meinem Yayo-TripUnd das letzte, was du siehst, ist mein Xenonlicht
+Komm in meine Stadt und senk' deinen KopfHier regieren Gangs, keine Cops
+Finger weg vom Mic, es ist Gangster, wenn ich rappe, du Kek
+Ich hab Kugeln für euch alle, es macht: Rät-Tät-Tät-Tät
+Meine Stadt hat keinen Platz für dich in deiner Promophase
+Und du siehst hingeschissen aus, so wie Jokos Haare
+Lass mal deine Nutte ficken, mach' nicht auf Beschützer
+Spinne 44 und wir ficken eure Mütter
+Nazar rennt, wenn der Benz um die Ecke kommt2 Kugeln in die Kniescheiben und du leckst Beton
+Ihr Hurensöhne macht auf best friends
+Ihr müsst alle im Café antanzen, es ist "Let's Dance"
+[Hook]
+Streit heißt: "Mic weg, klär' es mit der Faust"Zeig' mir deine Muskeln, ich lache dich aus
+Carlo Cokxxx Nutten, fick dein' Waffenschein, du Kek
+Stiche in die Lunge, es ist Butterfly Effect, yeah
+Streit heißt: "Mic weg, klär' es mit der Faust"Zeig' mir deine Muskeln, ich lache dich aus
+Carlo Cokxxx Nutten, fick dein' Waffenschein, du Kek
+Stiche in die Lunge, es ist Butterfly Effect, yeah
+[Part 2]
+Sonny Black, ich ticke braune Steine aus der Jackentasche
+Und das Battle ist gewonnen, wenn ich dein' Nacken klatsche
+CCN ist wie ein Drogendealer-Starterkit
+Ich mach', dass sich [Ruhe],diese Fotze jetzt die Arme ritzt
+Ich bring' den einzig wahren Ghettorap auf deutsch
+Deine Kettenraucher-Mutter hängt im Lesbenchat und säuft
+Das hier ist für Rapper wie ein Spießrutenlauf
+Stellt euch in 'ner Schießbude auf, ihr Pappnasen
+Carlo-Cokxxx-Flavour, back to the roots
+Während [Ruhe] Mami mit dem Sextouri schmust, yeah
+Es ist Sonny Black, Highlander, Braveheart
+Ersguterjunge ist der Schwanz in Kays Arsch
+Ich bin Oldschool wie Afrika Bambaataa
+Klatsche an der Tanke deinen Truckerfahrer-Vater
+Ich ficke deine Mutter, die im Wohnwagen blästUnd danach für 'nen Zwanni die Tarotkarten legt, yeah
+[Hook]
+Streit heißt: "Mic weg, klär' es mit der Faust"Zeig' mir deine Muskeln, ich lache dich aus
+Carlo Cokxxx Nutten, fick dein' Waffenschein, du Kek
+Stiche in die Lunge, es ist Butterfly Effect, yeah
+Streit heißt: "Mic weg, klär' es mit der Faust"Zeig' mir deine Muskeln, ich lache dich aus
+Carlo Cokxxx Nutten, fick dein' Waffenschein, du Kek
+Stiche in die Lunge, es ist Butterfly Effect, yeah</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -512,9 +555,72 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[Hook]Ich scheiß auf alle deine Gangsterklischees, JungeDas ist CCN-Mentalität, JungeIch feuer' Schüsse aus dem Benz AMG, JungeHier fragt dich keiner, wie's dir geht, Junge, yeahIch scheiß auf alle deine Gangsterklischees, JungeDas ist CCN-Mentalität, JungeIch feuer' Schüsse aus dem Benz AMG, JungeHier fragt dich keiner, wie's dir geht, Junge, yeah[Part 1]AMG-Kanake mit dem kriminellen BackgroundSonny pumpt die Kickdrum und der Track bouncedWir jagen dich in deinem BMW AlpinaWenn es um uns geht, lügt der BND mal wiederNeukölln-Kanaken, Keko, halt die BackenIch komm' aus'm Ghetto, ihr seid alle nur AttrappenMeine Leute schmuggeln H in das LandSonny bunkert Mios in dem Safe an der Wand, yeahGuck' mich an, ich mach' die Kohle wie ein BergwerkDu bist nur 'ne Schwuchtel, die in reichen Kreisen verkehrtUnd ich fick auf euer "Who is who? Wer ist wer?"CCN Teil 3 bricht Flers HerzYeah, ich bin unantastbar, du SuppenkasperWenn ich auf die Party komme, kriegt ihr Tucken AsthmaDu kommst zur Geldübergabe ohne lila ScheineDein Ernst, Junge? Zieh' mal Leine
-[Hook]Ich scheiß auf alle deine Gangsterklischees, JungeDas ist CCN-Mentalität, JungeIch feuer' Schüsse aus dem Benz AMG, JungeHier fragt dich keiner, wie's dir geht, Junge, yeahIch scheiß auf alle deine Gangsterklischees, JungeDas ist CCN-Mentalität, JungeIch feuer' Schüsse aus dem Benz AMG, JungeHier fragt dich keiner, wie's dir geht, Junge, yeah[Part 2]Ich mach' Rap wieder hart und deine Mutter blästIch bin seit über 20 Jahren in der PubertätKomm aus'm Viertel, wo wir vor dem GemüseladenEinfach irgendwelche Typen schlagen, das ist Berlin, JungeZieh' dich warm an, der Winter hier ist kaltKomm' vorbei, wir reden mit der Klinge an dei'm Hals, es istMeine Stadt, mein Bezirk, mein SpielfeldIch komm' auf die Wiesn und mach' Stress im VIP-ZeltDeine Freunde labern von Gewissen oder KarmaAlles missgebildete Buddhisten und VeganerIch bin offen, tolerant und gut integriertMeine Stadt wurde von 'nem Schwulen regiert, yeahEs ist real, keine PhilosophieIn den Straßen von Berlin macht Bushido ProfitUnd ich ficke deine Drecksmutter, Serdar SomuncuDu willst keinen Ärger? Dann Mund zu
-[Hook]Ich scheiß auf alle deine Gangsterklischees, JungeDas ist CCN-Mentalität, JungeIch feuer' Schüsse aus dem Benz AMG, JungeHier fragt dich keiner, wie's dir geht, Junge, yeahIch scheiß auf alle deine Gangsterklischees, JungeDas ist CCN-Mentalität, JungeIch feuer' Schüsse aus dem Benz AMG, JungeHier fragt dich keiner, wie's dir geht, Junge, yeah[Outro]"Slap rappers around and—""Don't talk greasy, you grew up off me""Better than cocaine""I'm above the law""Slap rappers around and—""Don't talk greasy, you grew up off me""Better than cocaine""I'm above the law"</t>
+          <t>[Hook]
+Ich scheiß auf alle deine Gangsterklischees, Junge
+Das ist CCN-Mentalität, Junge
+Ich feuer' Schüsse aus dem Benz AMG, Junge
+Hier fragt dich keiner, wie's dir geht, Junge, yeah
+Ich scheiß auf alle deine Gangsterklischees, Junge
+Das ist CCN-Mentalität, Junge
+Ich feuer' Schüsse aus dem Benz AMG, Junge
+Hier fragt dich keiner, wie's dir geht, Junge, yeah
+[Part 1]
+AMG-Kanake mit dem kriminellen Background
+Sonny pumpt die Kickdrum und der Track bounced
+Wir jagen dich in deinem BMW Alpina
+Wenn es um uns geht, lügt der BND mal wieder
+Neukölln-Kanaken, Keko, halt die Backen
+Ich komm' aus'm Ghetto, ihr seid alle nur Attrappen
+Meine Leute schmuggeln H in das Land
+Sonny bunkert Mios in dem Safe an der Wand, yeah
+Guck' mich an, ich mach' die Kohle wie ein Bergwerk
+Du bist nur 'ne Schwuchtel, die in reichen Kreisen verkehrt
+Und ich fick auf euer "Who is who? Wer ist wer?"
+CCN Teil 3 bricht Flers Herz
+Yeah, ich bin unantastbar, du Suppenkasper
+Wenn ich auf die Party komme, kriegt ihr Tucken Asthma
+Du kommst zur Geldübergabe ohne lila ScheineDein Ernst, Junge? Zieh' mal Leine
+[Hook]
+Ich scheiß auf alle deine Gangsterklischees, Junge
+Das ist CCN-Mentalität, Junge
+Ich feuer' Schüsse aus dem Benz AMG, Junge
+Hier fragt dich keiner, wie's dir geht, Junge, yeah
+Ich scheiß auf alle deine Gangsterklischees, Junge
+Das ist CCN-Mentalität, Junge
+Ich feuer' Schüsse aus dem Benz AMG, Junge
+Hier fragt dich keiner, wie's dir geht, Junge, yeah
+[Part 2]
+Ich mach' Rap wieder hart und deine Mutter bläst
+Ich bin seit über 20 Jahren in der Pubertät
+Komm aus'm Viertel, wo wir vor dem Gemüseladen
+Einfach irgendwelche Typen schlagen, das ist Berlin, Junge
+Zieh' dich warm an, der Winter hier ist kalt
+Komm' vorbei, wir reden mit der Klinge an dei'm Hals, es ist
+Meine Stadt, mein Bezirk, mein Spielfeld
+Ich komm' auf die Wiesn und mach' Stress im VIP-Zelt
+Deine Freunde labern von Gewissen oder Karma
+Alles missgebildete Buddhisten und Veganer
+Ich bin offen, tolerant und gut integriert
+Meine Stadt wurde von 'nem Schwulen regiert, yeah
+Es ist real, keine Philosophie
+In den Straßen von Berlin macht Bushido Profit
+Und ich ficke deine Drecksmutter, Serdar SomuncuDu willst keinen Ärger? Dann Mund zu
+[Hook]
+Ich scheiß auf alle deine Gangsterklischees, Junge
+Das ist CCN-Mentalität, Junge
+Ich feuer' Schüsse aus dem Benz AMG, Junge
+Hier fragt dich keiner, wie's dir geht, Junge, yeah
+Ich scheiß auf alle deine Gangsterklischees, Junge
+Das ist CCN-Mentalität, Junge
+Ich feuer' Schüsse aus dem Benz AMG, Junge
+Hier fragt dich keiner, wie's dir geht, Junge, yeah
+[Outro]
+"Slap rappers around and—""Don't talk greasy, you grew up off me"
+"Better than cocaine"
+"I'm above the law"
+"Slap rappers around and—""Don't talk greasy, you grew up off me"
+"Better than cocaine"
+"I'm above the law"</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -566,8 +672,54 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[Part 1]Ich hol' die AKs aus dem WaffenschrankSag mir, wen willst du Hurensohn holen, wenn die Kacke dampft?Deine Eltern sind Geschwister, Bruder und SchwesterDu Junkie spritzt dir Hero in der U-Bahn wie Casper, yeahIhr seht wie Missgeburten aus, holt euch Clerasil, CCN ist TherapieIch chill wie Kennedy im AdlonUnd Alice Schwarzer braucht 'n richtig fetten SchwanzDamit sie endlich wieder klarkommtRapper kriegen Schläge, wir sind Hooligans, ihr GaysKai Diekmann ist ein Hurensohn wie KayYeah, Khedira ist ein elendiger HundOhne Ari hätt'st du deine Lena nie gebumstWas haben Kay, Fler und Charr für 'ne Gemeinsamkeit?Diese Spitzel unterstützen PolizeiarbeitDu denkst, du findest bei den Bullen deinen Frieden?Aber jetzt werden die Schulden eingetrieben, yeah[Hook]Kommt Zeit, kommt Rat, scheißegal, wer ihr seidIhr werdet alle noch gefickt, ist nur 'ne Frage der ZeitUnd aus dem nichts, wenn die Eisenstange dich trifftMerkst du, wir sind lange nicht quittKommt Zeit, kommt Rat, scheißegal, wer ihr seidIhr werdet alle noch gefickt, ist nur 'ne Frage der ZeitUnd aus dem nichts, wenn die Eisenstange dich trifftMerkst du, wir sind lange nicht quitt
-[Part 2]Ich hol' die AKs aus dem WaffenschrankScheiß auf deine AkzeptanzDenn die Scheiße hier verfolgt dich wie ein RattenschwanzEs wird nicht lustig, denn ich bin nicht Bill CosbyUnd dann bettelst du bei mir um Hilfe wie Buschkowsky, yeahRapper wollen Frieden und die Hände gebenDrauf geschissen, du musst mit den Konsequenzen lebenIch bin Pitbull, denn Hunde riechen AngstSchieß' auf Curse Beinchen und das Rumpelstilzchen tanzt, yeahEs ist Sonny Black, der HaifischDu bist Gangster, aber leider nur hinter deinem SchreibtischFick auf dein Erwachsenwerden, du Kek„Du Hurensohn“ ist immer noch mein Ass im Ärmel, du KekDu willst Ärger, dann komm' runter, du HomoUnd jetzt nimm ihn in den Mund, so wie JokoIch boxe auch Frauen, das ist EmanzipationGeh vom Fenster weg, GangsterRap, sechs von sechs Kron'n[Hook]Kommt Zeit, kommt Rat, scheißegal, wer ihr seidIhr werdet alle noch gefickt, ist nur 'ne Frage der ZeitUnd aus dem nichts, wenn die Eisenstange dich trifftMerkst du, wir sind lange nicht quittKommt Zeit, kommt Rat, scheißegal, wer ihr seidIhr werdet alle noch gefickt, ist nur 'ne Frage der ZeitUnd aus dem nichts, wenn die Eisenstange dich trifftMerkst du, wir sind lange nicht quitt</t>
+          <t>[Part 1]
+Ich hol' die AKs aus dem Waffenschrank
+Sag mir, wen willst du Hurensohn holen, wenn die Kacke dampft?
+Deine Eltern sind Geschwister, Bruder und Schwester
+Du Junkie spritzt dir Hero in der U-Bahn wie Casper, yeah
+Ihr seht wie Missgeburten aus, holt euch Clerasil, CCN ist Therapie
+Ich chill wie Kennedy im Adlon
+Und Alice Schwarzer braucht 'n richtig fetten SchwanzDamit sie endlich wieder klarkommt
+Rapper kriegen Schläge, wir sind Hooligans, ihr Gays
+Kai Diekmann ist ein Hurensohn wie Kay
+Yeah, Khedira ist ein elendiger HundOhne Ari hätt'st du deine Lena nie gebumst
+Was haben Kay, Fler und Charr für 'ne Gemeinsamkeit?Diese Spitzel unterstützen Polizeiarbeit
+Du denkst, du findest bei den Bullen deinen Frieden?
+Aber jetzt werden die Schulden eingetrieben, yeah
+[Hook]
+Kommt Zeit, kommt Rat, scheißegal, wer ihr seid
+Ihr werdet alle noch gefickt, ist nur 'ne Frage der Zeit
+Und aus dem nichts, wenn die Eisenstange dich trifft
+Merkst du, wir sind lange nicht quitt
+Kommt Zeit, kommt Rat, scheißegal, wer ihr seid
+Ihr werdet alle noch gefickt, ist nur 'ne Frage der Zeit
+Und aus dem nichts, wenn die Eisenstange dich trifft
+Merkst du, wir sind lange nicht quitt
+[Part 2]
+Ich hol' die AKs aus dem Waffenschrank
+Scheiß auf deine Akzeptanz
+Denn die Scheiße hier verfolgt dich wie ein Rattenschwanz
+Es wird nicht lustig, denn ich bin nicht Bill Cosby
+Und dann bettelst du bei mir um Hilfe wie Buschkowsky, yeah
+Rapper wollen Frieden und die Hände geben
+Drauf geschissen, du musst mit den Konsequenzen leben
+Ich bin Pitbull, denn Hunde riechen Angst
+Schieß' auf Curse Beinchen und das Rumpelstilzchen tanzt, yeah
+Es ist Sonny Black, der Haifisch
+Du bist Gangster, aber leider nur hinter deinem Schreibtisch
+Fick auf dein Erwachsenwerden, du Kek„Du Hurensohn“ ist immer noch mein Ass im Ärmel, du Kek
+Du willst Ärger, dann komm' runter, du HomoUnd jetzt nimm ihn in den Mund, so wie Joko
+Ich boxe auch Frauen, das ist Emanzipation
+Geh vom Fenster weg, Gangster-Rap, sechs von sechs Kron'n
+[Hook]
+Kommt Zeit, kommt Rat, scheißegal, wer ihr seid
+Ihr werdet alle noch gefickt, ist nur 'ne Frage der Zeit
+Und aus dem nichts, wenn die Eisenstange dich trifft
+Merkst du, wir sind lange nicht quitt
+Kommt Zeit, kommt Rat, scheißegal, wer ihr seid
+Ihr werdet alle noch gefickt, ist nur 'ne Frage der Zeit
+Und aus dem nichts, wenn die Eisenstange dich trifft
+Merkst du, wir sind lange nicht quitt</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -619,9 +771,60 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[Part 1]Geh zur Seite, Kek, West-Berlin am MicWillkommen in der Stadt, wo Battle Messer ziehen heißtSonny zieht die Fäden, ihr seid alle meine Schachfiguren2015, Rap braucht immer noch kein AbiturRap ist Geld, weil die Nutte für mich ackern gehtWie deine Tante, die bei irgendwelchen Truckern blästYeah, es ist Ghettorap, ElectrofaustSonny, ich bin straight und ficke nicht mit deinem TechnosoundKokain und Nutten, was für witzige VergleicheDu Missgeburt, mach' hier nicht auf 50 Cent für WeißeEs ist meine Stadt, benimm dich wie ein GastLeg' das Koka auf die Flügel von dem Adler auf dem PassYeah, Deutschland schafft sich abSonny feuert Gunshots im Takt (Schuss)Auf die ganze Szene mit der PanzerfaustFick deinen Pop-Rap, du Schwuchtel, das ist Underground[Hook]Yeah , West-Berlin - Gangsta GangstaSüd-Berlin - Gangsta GangstaSonny Black - Gangsta GangstaCarlo Cokxxx Nutten 3 - Gangsta GangstaYeah , West-Berlin - Gangsta GangstaSüd-Berlin - Gangsta GangstaSonny Black - Gangsta GangstaCarlo Cokxxx Nutten 3 - Gangsta Gangsta
-[Part 2]Ich bunker' meine Scheine in der BlechbüchseCCN-Sound, fresh aus der CrackkücheArmes Deutschland, ich ficke deine HurenUnd vergifte deine Jugend, es istDrogendealer-Rap, check den Kokaina-KursAnimus ist weg und Fler signed Conchita WurstMein Bezirk macht Welle, Wessis kriegen SchockEin Wort über Mama und ich stech' dir in den Kopf, yeahIch bin zurück und glaub' mir, Rache ist süßGuck, wie jeder Rapper meine Kacke frisst, çüşVierzehn Jahre Ghetto, hab' mich sehr krass verändertDamals BVG, jetzt der Stern auf dem LenkradIch spiele dir das Lied vom Tod auf der ViolineDein Rap ist Pussy, mein Rap ist GuillotineEs ist Gangster, immer, wenn ich auf die Kripo zieleJede Fotze kommt auf die Bushido-Schiene, Nutte[Hook]Yeah , West-Berlin - Gangsta GangstaSüd-Berlin - Gangsta GangstaSonny Black - Gangsta GangstaCarlo Cokxxx Nutten 3 - Gangsta GangstaYeah , West-Berlin - Gangsta GangstaSüd-Berlin - Gangsta GangstaSonny Black - Gangsta GangstaCarlo Cokxxx Nutten 3 - Gangsta Gangsta
-[Outro: Scratches]"Mafioso style, where the force is""Name a rapper that I ain't influenced""Large on the street sceneEverytime I touch mics–""Mafioso style, where the force is""Name a rapper that I ain't influenced""Large on the street sceneEverytime I touch mics–"</t>
+          <t>[Part 1]
+Geh zur Seite, Kek, West-Berlin am Mic
+Willkommen in der Stadt, wo Battle Messer ziehen heißt
+Sonny zieht die Fäden, ihr seid alle meine Schachfiguren
+2015, Rap braucht immer noch kein Abitur
+Rap ist Geld, weil die Nutte für mich ackern geht
+Wie deine Tante, die bei irgendwelchen Truckern bläst
+Yeah, es ist Ghettorap,Electrofaust
+Sonny, ich bin straight und ficke nicht mit deinem Technosound
+Kokain und Nutten, was für witzige Vergleiche
+Du Missgeburt, mach' hier nicht auf 50 Cent für Weiße
+Es ist meine Stadt, benimm dich wie ein Gast
+Leg' das Koka auf die Flügel von dem Adler auf dem Pass
+Yeah, Deutschland schafft sich ab
+Sonny feuert Gunshots im Takt (Schuss)
+Auf die ganze Szene mit der Panzerfaust
+Fick deinen Pop-Rap, du Schwuchtel, das ist Underground
+[Hook]
+Yeah , West-Berlin - Gangsta Gangsta
+Süd-Berlin - Gangsta Gangsta
+Sonny Black - Gangsta Gangsta
+Carlo Cokxxx Nutten 3 - Gangsta Gangsta
+Yeah , West-Berlin - Gangsta Gangsta
+Süd-Berlin - Gangsta Gangsta
+Sonny Black - Gangsta Gangsta
+Carlo Cokxxx Nutten 3 - Gangsta Gangsta
+[Part 2]
+Ich bunker' meine Scheine in der Blechbüchse
+CCN-Sound, fresh aus der Crackküche
+Armes Deutschland, ich ficke deine Huren
+Und vergifte deine Jugend, es ist
+Drogendealer-Rap, check den Kokaina-Kurs
+Animus ist weg und Fler signed Conchita Wurst
+Mein Bezirk macht Welle, Wessis kriegen Schock
+Ein Wort über Mama und ich stech' dir in den Kopf, yeah
+Ich bin zurück und glaub' mir, Rache ist süß
+Guck, wie jeder Rapper meine Kacke frisst, çüş
+Vierzehn Jahre Ghetto, hab' mich sehr krass verändert
+Damals BVG, jetzt der Stern auf dem Lenkrad
+Ich spiele dir das Lied vom Tod auf der Violine
+Dein Rap ist Pussy, mein Rap ist Guillotine
+Es ist Gangster, immer, wenn ich auf die Kripo ziele
+Jede Fotze kommt auf die Bushido-Schiene, Nutte
+[Hook]
+Yeah , West-Berlin - Gangsta Gangsta
+Süd-Berlin - Gangsta Gangsta
+Sonny Black - Gangsta Gangsta
+Carlo Cokxxx Nutten 3 - Gangsta Gangsta
+Yeah , West-Berlin - Gangsta Gangsta
+Süd-Berlin - Gangsta Gangsta
+Sonny Black - Gangsta Gangsta
+Carlo Cokxxx Nutten 3 - Gangsta Gangsta
+[Outro: Scratches]
+"Mafioso style, where the force is""Name a rapper that I ain't influenced""Large on the street sceneEverytime I touch mics–""Mafioso style, where the force is""Name a rapper that I ain't influenced""Large on the street sceneEverytime I touch mics–"</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -673,8 +876,48 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[Songtext zu „Immer noch 2015“][Part 1]Yeah, ich hab immer noch die Skyline im BlickImmer noch der Junge mit dem Mike Tyson Schnitt, yeahFick noch immer deinen Z-Promi-StatusImmer noch leckt Deutschrap Sonnys AnusIch hab immer noch das Ghetto in mirNoch immer nicht den schwuchteligen Dresscode wie ihr, yeahIch hab immer noch die Cordon im KleiderschrankImmer noch bin ich unerwünscht in meinem HeimatlandImmer noch Abou-Chaker-FamilyWir haben die Hunde durchgefüttert, so wie PedigreeImmer noch die Nikes und die SweatpantsUnd ich bin immer noch mit keinem von euch best friendsEs ist immer noch Ketten raus, Kragen hochCarlo Cokxxx, immer noch der AMG im ParkverbotIch bin noch immer auf der Street, deutscher Rap willGhetto werden, doch die Nutte weiß noch immer nicht, wie[Hook]Immer noch Nike Air und Reebok ClassicsImmer noch „Fick deine Mutter!“ ist die MessageImmer noch „Scheiß drauf, wie du mich gerne hättest!“Immer noch „Fick deine Mutter!“ ist die Message"Immer noch Nike Air und Reebok ClassicsImmer noch „Fick deine Mutter!“ ist die MessageImmer noch „Scheiß drauf, wie du mich gerne hättest!“Immer noch „Fick deine Mutter!“ ist die Message"
-[Part 2]Ich bin immer noch der Nummer 1 StaatsfeindIch häng' noch immer nicht mit irgendeinem Karl-HeinzIch box' euch immer noch zurück in die sixtiesNutten kommen immer noch zurück so wie FrisbeesIch ruf immer noch: "Fick die Polizei"Und immer noch hab ich den rhythm of the night, yeahIch bin immer noch der Junge, der die Trains bombtImmer noch der allergrößte Hurensohn - Kay OneImmer noch der, der die Gesetze brichtImmer noch der Rapper, der dich battlet mit 'nem MesserstichIch häng' noch immer nicht mit Promis, aus PrinzipImmer noch CCN, Sonny bounced den BeatImmer noch kein RapperKomm' auf deine Party wie ein HochzeitscrasherIch bin noch immer auf der Street, deutscher Rap willGhetto werden, doch die Nutte weiß noch immer nicht, wie[Hook]Immer noch Nike Air und Reebok ClassicsImmer noch „Fick deine Mutter!“ ist die MessageImmer noch „Scheiß drauf, wie du mich gerne hättest!“Immer noch „Fick deine Mutter!“ ist die Message"Immer noch Nike Air und Reebok ClassicsImmer noch „Fick deine Mutter!“ ist die MessageImmer noch „Scheiß drauf, wie du mich gerne hättest!“Immer noch „Fick deine Mutter!“ ist die Message"</t>
+          <t>[Songtext zu „Immer noch 2015“]
+[Part 1]
+Yeah, ich hab immer noch die Skyline im BlickImmer noch der Junge mit dem Mike Tyson Schnitt, yeah
+Fick noch immer deinen Z-Promi-Status
+Immer noch leckt Deutschrap Sonnys Anus
+Ich hab immer noch das Ghetto in mir
+Noch immer nicht den schwuchteligen Dresscode wie ihr, yeah
+Ich hab immer noch die Cordon im Kleiderschrank
+Immer noch bin ich unerwünscht in meinem Heimatland
+Immer noch Abou-Chaker-Family
+Wir haben die Hunde durchgefüttert, so wie Pedigree
+Immer noch die Nikes und die Sweatpants
+Und ich bin immer noch mit keinem von euch best friends
+Es ist immer noch Ketten raus, Kragen hoch
+Carlo Cokxxx, immer noch der AMG im Parkverbot
+Ich bin noch immer auf der Street,deutscher Rap willGhetto werden, doch die Nutte weiß noch immer nicht, wie
+[Hook]
+Immer noch Nike Air und Reebok Classics
+Immer noch „Fick deine Mutter!“ ist die MessageImmer noch „Scheiß drauf, wie du mich gerne hättest!“Immer noch „Fick deine Mutter!“ ist die Message"
+Immer noch Nike Air und Reebok Classics
+Immer noch „Fick deine Mutter!“ ist die MessageImmer noch „Scheiß drauf, wie du mich gerne hättest!“Immer noch „Fick deine Mutter!“ ist die Message"
+[Part 2]
+Ich bin immer noch der Nummer 1 Staatsfeind
+Ich häng' noch immer nicht mit irgendeinem Karl-Heinz
+Ich box' euch immer noch zurück in die sixties
+Nutten kommen immer noch zurück so wie Frisbees
+Ich ruf immer noch: "Fick die Polizei"
+Und immer noch hab ich den rhythm of the night, yeah
+Ich bin immer noch der Junge, der die Trains bombt
+Immer noch der allergrößte Hurensohn - Kay One
+Immer noch der, der die Gesetze bricht
+Immer noch der Rapper, der dich battlet mit 'nem Messerstich
+Ich häng' noch immer nicht mit Promis, aus Prinzip
+Immer noch CCN, Sonny bounced den Beat
+Immer noch kein Rapper
+Komm' auf deine Party wie ein Hochzeitscrasher
+Ich bin noch immer auf der Street,deutscher Rap willGhetto werden, doch die Nutte weiß noch immer nicht, wie
+[Hook]
+Immer noch Nike Air und Reebok Classics
+Immer noch „Fick deine Mutter!“ ist die MessageImmer noch „Scheiß drauf, wie du mich gerne hättest!“Immer noch „Fick deine Mutter!“ ist die Message"
+Immer noch Nike Air und Reebok Classics
+Immer noch „Fick deine Mutter!“ ist die MessageImmer noch „Scheiß drauf, wie du mich gerne hättest!“Immer noch „Fick deine Mutter!“ ist die Message"</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -726,8 +969,57 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[Part 1]Ah, das ist Van Damme - Lionheart, ich hol' mir deinen ArschFicke deine Mutter und das ist kein Grund, zu weinen, KlaasIch rotze Gregor Gysi auf die GlatzeUnd ficke Dieter Nuhr, diesen riesen Haufen KackeBarbecue ist over und ich ficke deutschen Hip-HopDrive-By auf den Tuntentreff bei Rap am MittwochDeine arbeitslosen Kumpels singen Nazi-ChöreIm Gefängnis ist Prinz Marcus nicht mehr so ein Partylöwe, yeahIch bin ersguterjunge-CEOWenn ich komme, sucht dein Vater seine LibidoIch lasse dich von meinem Haifisch vernaschenDeine Mutter lässt sich in 'ner Kneipe begrapschenBerlin City, hier hat Flizzy nichts zu sagenDu weißt, wovon ich rede, es gibt Tritte in den MagenDeine schwulen Freunde sehen alle aus wie Techno-JunksKomm', ich piss' dir ins Gesicht, dann hast du deinen Sektempfang[Hook]Yeah, Carlo Cokxxx 3, meine TrilogieSchau mir zu, wie ich die Szene ficke - POVAlles Spasten, so wie Big Bang TheoryIch frage deine Mutter, ob sie weiß, wie viel ein Kilo wiegtYeah, Carlo Cokxxx 3, meine TrilogieSchau mir zu, wie ich die Szene ficke - POVAlles Spasten, so wie Big Bang TheoryIch frage deine Mutter, ob sie weiß, wie viel ein Kilo wiegt
-[Part 2]King Bushido und die Scheiße hier ist amtlichDeine Mutter sitzt mit einem Weizenbier am StammtischIch zertrampel' deinem Bruder seine Lego-BurgSchneid' dir bitte endlich mal die Haare jetzt, du FehlgeburtDas ist Gangsterrap, ich bau' den Beat auf YayoCCN, Sonny macht die Knete, so wie Play DohUnd ich hab immer noch den Rhythm of the NightDein fetter Vater hat die Hängetitten wie ein Schwein, yeahIch bin am ticken wie die Breitling und die GlashütteStreifenpolizisten läuft das Wasser aus der ArschritzeMr. Sonny Black, der Punisher ist backIch komm' auf deine Feier, Happy Chanukka, du Kek, yeahEs gibt nichts, zu regeln, halt die Füße stillUnd die Fresse deiner Freundin ist noch schlimmer als ein PsychofilmDeine Mutter macht auf mir 'ne KarussellfahrtUnd die Schwabbeltitten wackeln wie bei Manuel Charr[Hook]Yeah, Carlo Cokxxx 3, meine TrilogieSchau mir zu, wie ich die Szene ficke - POVAlles Spasten, so wie Big Bang TheoryIch frage deine Mutter, ob sie weiß, wie viel ein Kilo wiegtYeah, Carlo Cokxxx 3, meine TrilogieSchau mir zu, wie ich die Szene ficke - POVAlles Spasten, so wie Big Bang TheoryIch frage deine Mutter, ob sie weiß, wie viel ein Kilo wiegt</t>
+          <t>[Part 1]
+Ah, das ist Van Damme - Lionheart, ich hol' mir deinen Arsch
+Ficke deine Mutter und das ist kein Grund, zu weinen, Klaas
+Ich rotze Gregor Gysi auf die Glatze
+Und ficke Dieter Nuhr, diesen riesen Haufen Kacke
+Barbecue ist over und ich ficke deutschen Hip-Hop
+Drive-By auf den Tuntentreff bei Rap am Mittwoch
+Deine arbeitslosen Kumpels singen Nazi-Chöre
+Im Gefängnis ist Prinz Marcus nicht mehr so ein Partylöwe, yeah
+Ich bin ersguterjunge-CEO
+Wenn ich komme, sucht dein Vater seine Libido
+Ich lasse dich von meinem Haifisch vernaschen
+Deine Mutter lässt sich in 'ner Kneipe begrapschen
+Berlin City, hier hat Flizzy nichts zu sagen
+Du weißt, wovon ich rede, es gibt Tritte in den Magen
+Deine schwulen Freunde sehen alle aus wie Techno-Junks
+Komm', ich piss' dir ins Gesicht, dann hast du deinen Sektempfang
+[Hook]
+Yeah, Carlo Cokxxx 3, meine Trilogie
+Schau mir zu, wie ich die Szene ficke - POV
+Alles Spasten, so wie Big Bang Theory
+Ich frage deine Mutter, ob sie weiß, wie viel ein Kilo wiegt
+Yeah, Carlo Cokxxx 3, meine Trilogie
+Schau mir zu, wie ich die Szene ficke - POV
+Alles Spasten, so wie Big Bang Theory
+Ich frage deine Mutter, ob sie weiß, wie viel ein Kilo wiegt
+[Part 2]
+King Bushido und die Scheiße hier ist amtlich
+Deine Mutter sitzt mit einem Weizenbier am Stammtisch
+Ich zertrampel' deinem Bruder seine Lego-Burg
+Schneid' dir bitte endlich mal die Haare jetzt, du Fehlgeburt
+Das ist Gangsterrap, ich bau' den Beat auf Yayo
+CCN, Sonny macht die Knete, so wie Play Doh
+Und ich hab immer noch den Rhythm of the Night
+Dein fetter Vater hat die Hängetitten wie ein Schwein, yeah
+Ich bin am ticken wie die Breitling und die Glashütte
+Streifenpolizisten läuft das Wasser aus der Arschritze
+Mr. Sonny Black, der Punisher ist backIch komm' auf deine Feier, Happy Chanukka, du Kek, yeah
+Es gibt nichts, zu regeln, halt die Füße still
+Und die Fresse deiner Freundin ist noch schlimmer als ein Psychofilm
+Deine Mutter macht auf mir 'ne Karussellfahrt
+Und die Schwabbeltitten wackeln wie bei Manuel Charr
+[Hook]
+Yeah, Carlo Cokxxx 3, meine Trilogie
+Schau mir zu, wie ich die Szene ficke - POV
+Alles Spasten, so wie Big Bang Theory
+Ich frage deine Mutter, ob sie weiß, wie viel ein Kilo wiegt
+Yeah, Carlo Cokxxx 3, meine Trilogie
+Schau mir zu, wie ich die Szene ficke - POV
+Alles Spasten, so wie Big Bang Theory
+Ich frage deine Mutter, ob sie weiß, wie viel ein Kilo wiegt</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -779,9 +1071,66 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[Hook]Ich hab den Großstadtsmog in meinem BlutTeer in der Lunge und das Herz auf der ZungeIhr wisst, wo ihr mich findet, wenn mich irgendeiner suchtIch renne vor den Bullen, ich bin Tempelhofer Junge, yeahIch hab den Großstadtsmog in meinem BlutTeer in der Lunge und das Herz auf der ZungeIhr wisst, wo ihr mich findet, wenn mich irgendeiner suchtIch renne vor den Bullen, ich bin Tempelhofer Junge, yeah[Part 1]Ich bin Tempelhofer Junge, hab die Cops vor der HaustüreKomm auf's Splash! und boxe Rapper von der HauptbühneFick auf euren Inzestrap-MikrokosmosJede Schwuchtel will connecten wie ein HotspotSie reichen sich die Hände und sie schlagen sich mit WörternIrgendwelche Hanswursts aus irgendwelchen DörfernIch hab noch nie gefreestyled und belasse es dabeiWillst du irgendetwas klären, nimm die Waffe statt dem MicYeah, ich bin seit '99 unangefochtenIn meiner Gegend kommst du wie ein Hund angekrochenIch rauche kein Weed und ich trage keine CapMerkst du jetzt? Du bist nicht meine Kragenweite, KekScheißegal, wir können Schwanz oder Bartlänge messenMuss mich vor der Kripo aus dem Badfenster rettenDas sind Geschichten, die das Leben schreibtIch bleibe Tempelhofer Junge und das bis in alle Ewigkeit
-[Hook]Ich hab den Großstadtsmog in meinem BlutTeer in der Lunge und das Herz auf der ZungeIhr wisst, wo ihr mich findet, wenn mich irgendeiner suchtIch renne vor den Bullen, ich bin Tempelhofer Junge, yeahIch hab den Großstadtsmog in meinem BlutTeer in der Lunge und das Herz auf der ZungeIhr wisst, wo ihr mich findet, wenn mich irgendeiner suchtIch renne vor den Bullen, ich bin Tempelhofer Junge, yeah[Part 2]Ich bin Tempelhofer Junge, diskutiere mit der FaustIch ficke eure Mütter und die Schwiegermütter auchIch kacke auf Community und kacke auf ApplausKomm aus Tempelhof und geh' nicht unbewaffnet aus dem HausIch hab die stärksten Freunde und das Game in meiner HandUnd deshalb lutscht jeder Act auf deinem Label meinen SchwanzGeh im Hoodie durch den Wind, die Kapuze auf dem KopfVerticke Tilidin und überflute deinen BlockIch bin kriminell, gefährlich von Kopf bis zum FußDer Grund, warum du heute noch den Doktor besuchstDie Jahre, sie vergehen, doch auf eins bleibt Verlass:Auch in Zehlendorf bleib' ich mit einem Bein im Knast, yeahWir dulden keine Hipster hier in TempeltownFicken eure Mütter auf dem Underground-SamplesoundIhr fresst den Bordstein, wenn ihr in meiner Gegend seidTempelhofer Junge, und das bis in alle Ewigkeit
-[Hook]Ich hab den Großstadtsmog in meinem BlutTeer in der Lunge und das Herz auf der ZungeIhr wisst, wo ihr mich findet, wenn mich irgendeiner suchtIch renne vor den Bullen, ich bin Tempelhofer Junge, yeahIch hab den Großstadtsmog in meinem BlutTeer in der Lunge und das Herz auf der ZungeIhr wisst, wo ihr mich findet, wenn mich irgendeiner suchtIch renne vor den Bullen, ich bin Tempelhofer Junge, yeah</t>
+          <t>[Hook]
+Ich hab den Großstadtsmog in meinem Blut
+Teer in der Lunge und das Herz auf der Zunge
+Ihr wisst, wo ihr mich findet, wenn mich irgendeiner sucht
+Ich renne vor den Bullen, ich bin Tempelhofer Junge, yeah
+Ich hab den Großstadtsmog in meinem Blut
+Teer in der Lunge und das Herz auf der Zunge
+Ihr wisst, wo ihr mich findet, wenn mich irgendeiner sucht
+Ich renne vor den Bullen, ich bin Tempelhofer Junge, yeah
+[Part 1]
+Ich bin Tempelhofer Junge, hab die Cops vor der Haustüre
+Komm auf's Splash! und boxe Rapper von der Hauptbühne
+Fick auf euren Inzestrap-Mikrokosmos
+Jede Schwuchtel will connecten wie ein Hotspot
+Sie reichen sich die Hände und sie schlagen sich mit Wörtern
+Irgendwelche Hanswursts aus irgendwelchen Dörfern
+Ich hab noch nie gefreestyled und belasse es dabei
+Willst du irgendetwas klären, nimm die Waffe statt dem Mic
+Yeah, ich bin seit '99 unangefochten
+In meiner Gegend kommst du wie ein Hund angekrochen
+Ich rauche kein Weed und ich trage keine CapMerkst du jetzt? Du bist nicht meine Kragenweite, Kek
+Scheißegal, wir können Schwanz oder Bartlänge messen
+Muss mich vor der Kripo aus dem Badfenster retten
+Das sind Geschichten, die das Leben schreibt
+Ich bleibe Tempelhofer Junge und das bis in alle Ewigkeit
+[Hook]
+Ich hab den Großstadtsmog in meinem Blut
+Teer in der Lunge und das Herz auf der Zunge
+Ihr wisst, wo ihr mich findet, wenn mich irgendeiner sucht
+Ich renne vor den Bullen, ich bin Tempelhofer Junge, yeah
+Ich hab den Großstadtsmog in meinem Blut
+Teer in der Lunge und das Herz auf der Zunge
+Ihr wisst, wo ihr mich findet, wenn mich irgendeiner sucht
+Ich renne vor den Bullen, ich bin Tempelhofer Junge, yeah
+[Part 2]
+Ich bin Tempelhofer Junge, diskutiere mit der Faust
+Ich ficke eure Mütter und die Schwiegermütter auch
+Ich kacke auf Community und kacke auf Applaus
+Komm aus Tempelhof und geh' nicht unbewaffnet aus dem Haus
+Ich hab die stärksten Freunde und das Game in meiner Hand
+Und deshalb lutscht jeder Act auf deinem Label meinen Schwanz
+Geh im Hoodie durch den Wind, die Kapuze auf dem Kopf
+Verticke Tilidin und überflute deinen Block
+Ich bin kriminell, gefährlich von Kopf bis zum Fuß
+Der Grund, warum du heute noch den Doktor besuchst
+Die Jahre, sie vergehen, doch auf eins bleibt Verlass:
+Auch in Zehlendorf bleib' ich mit einem Bein im Knast, yeah
+Wir dulden keine Hipster hier in Tempeltown
+Ficken eure Mütter auf dem Underground-Samplesound
+Ihr fresst den Bordstein, wenn ihr in meiner Gegend seid
+Tempelhofer Junge, und das bis in alle Ewigkeit
+[Hook]
+Ich hab den Großstadtsmog in meinem Blut
+Teer in der Lunge und das Herz auf der Zunge
+Ihr wisst, wo ihr mich findet, wenn mich irgendeiner sucht
+Ich renne vor den Bullen, ich bin Tempelhofer Junge, yeah
+Ich hab den Großstadtsmog in meinem Blut
+Teer in der Lunge und das Herz auf der Zunge
+Ihr wisst, wo ihr mich findet, wenn mich irgendeiner sucht
+Ich renne vor den Bullen, ich bin Tempelhofer Junge, yeah</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -833,9 +1182,55 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[Part 1]In meinem Viertel gibt es keine Open-Mic-SessionWir lassen Gangsterrapper Blei fressen, das ist RealtalkDie kleinen Jungs üben Special-Moves, Tekken FourUnd die Großen überfallen hier den Apple StoreDas ist die Straße, Junge, das ist kein Twitter-BeefIch stell' die Fotzenrapper ruhig, so wie RitalinIch hab den CCN-Gangster-FlavourIhr seid keine Dealer, ihr seid EntertainerDu bist Gangster, wieso hängst du dann mit Spitzeln rum?Wieso hängt kein AMG-Schlüssel an dei'm Schlüsselbund?Ich bin der einzig Wahre, ihr seid alle HochstaplerJunge, ich bin deines Vaters Vaters GroßvaterIch verlasse, so wie Zinédine, das FeldDu bist nur ein Kek, der, wenn er rappt, die Stimme tiefer stelltHab den Blueprint geliefert, ihr wollt abpausen?Wer soll euch diese Scheiße abkaufen? Ihr Kackhaufen[Hook]Es ist Gang-Fight, wenn der Beat nicht mehr läuftIhr habt alle keine Eier, wenn der Beat nicht mehr läuftDu musst auch hart sein, wenn der Beat nicht mehr läuftIhr seid Fotzen, wenn der Beat nicht mehr läuft, yeah!Es ist Gang-Fight, wenn der Beat nicht mehr läuftIhr habt alle keine Eier, wenn der Beat nicht mehr läuftDu musst auch hart sein, wenn der Beat nicht mehr läuftIhr seid Fotzen, wenn der Beat nicht mehr läuft, yeah!
-[Part 2]In meinem Viertel gibt es keine Open-Mic-SessionBei uns ist Undercover-Kripo-Polizei-ActionEs ist Tag aus, Tag ein VendettaJunge, ich bin Gangster und ich mag keine RapperWo ich herkomme, klären wir Dinge nurVon Angesicht zu AngesichtKomm mal ins Café und zeig', was für ein Mann du bistInternet-Rambos, was ist 'ne Fotze mit 'nem Gramm Koks?Nur 'ne Fotze mit 'nem Gramm KoksWas ist schon Rap? Rap ist nichts, wenn du nichts bistIhr seid alle nichts und darum dreht das Business sich um michYeah, fick dein Facebook-Profil, JungeDu bist nicht real, Junge, lass die Straße aus dem Spiel, JungeUnd ich scheiß auf eure Interviews, ihr DreckslügnerMeine allerbesten Freunde, es sind sechs BrüderDie Fotzen wollen Geld verdienen mit meiner StoryIch bin King auf den Straßen, für immer Sonny[Hook]Es ist Gang-Fight, wenn der Beat nicht mehr läuftIhr habt alle keine Eier, wenn der Beat nicht mehr läuftDu musst auch hart sein, wenn der Beat nicht mehr läuftIhr seid Fotzen, wenn der Beat nicht mehr läuft, yeah!Es ist Gang-Fight, wenn der Beat nicht mehr läuftIhr habt alle keine Eier, wenn der Beat nicht mehr läuftDu musst auch hart sein, wenn der Beat nicht mehr läuftIhr seid Fotzen, wenn der Beat nicht mehr läuft, yeah!
-[Outro: Scratches]„Jetzt kommt meine Zeit, siehst du, wie ich auf dich kacke?“„Denkst, ich bin zu hart für deutschen Rap?“„Flext, ab jetzt heißt es: Gangsterrap“„Wozu soll ich jetzt noch nett sein? Ich hol' mir deinen Arsch.“„Jetzt kommt meine Zeit, siehst du, wie ich auf dich kacke?“„Denkst, ich bin zu hart für deutschen Rap?“„Flext, ab jetzt heißt es: Gangsterrap“„Wozu soll ich jetzt noch nett sein? Ich hol' mir deinen Arsch.“</t>
+          <t xml:space="preserve">[Part 1]
+In meinem Viertel gibt es keine Open-Mic-Session
+Wir lassen Gangsterrapper Blei fressen, das ist Realtalk
+Die kleinen Jungs üben Special-Moves, Tekken FourUnd die Großen überfallen hier den Apple Store
+Das ist die Straße, Junge, das ist kein Twitter-Beef
+Ich stell' die Fotzenrapper ruhig, so wie Ritalin
+Ich hab den CCN-Gangster-Flavour
+Ihr seid keine Dealer, ihr seid Entertainer
+Du bist Gangster, wieso hängst du dann mit Spitzeln rum?
+Wieso hängt kein AMG-Schlüssel an dei'm Schlüsselbund?
+Ich bin der einzig Wahre, ihr seid alle Hochstapler
+Junge, ich bin deines Vaters Vaters Großvater
+Ich verlasse, so wie Zinédine, das Feld
+Du bist nur ein Kek, der, wenn er rappt, die Stimme tiefer stellt
+Hab den Blueprint geliefert, ihr wollt abpausen?Wer soll euch diese Scheiße abkaufen? Ihr Kackhaufen
+[Hook]
+Es ist Gang-Fight, wenn der Beat nicht mehr läuftIhr habt alle keine Eier, wenn der Beat nicht mehr läuftDu musst auch hart sein, wenn der Beat nicht mehr läuftIhr seid Fotzen, wenn der Beat nicht mehr läuft, yeah!
+Es ist Gang-Fight, wenn der Beat nicht mehr läuftIhr habt alle keine Eier, wenn der Beat nicht mehr läuftDu musst auch hart sein, wenn der Beat nicht mehr läuftIhr seid Fotzen, wenn der Beat nicht mehr läuft, yeah!
+[Part 2]
+In meinem Viertel gibt es keine Open-Mic-Session
+Bei uns ist Undercover-Kripo-Polizei-Action
+Es ist Tag aus, Tag ein Vendetta
+Junge, ich bin Gangster und ich mag keine Rapper
+Wo ich herkomme, klären wir Dinge nur
+Von Angesicht zu Angesicht
+Komm mal ins Café und zeig', was für ein Mann du bist
+Internet-Rambos, was ist 'ne Fotze mit 'nem Gramm Koks?
+Nur 'ne Fotze mit 'nem Gramm Koks
+Was ist schon Rap? Rap ist nichts, wenn du nichts bist
+Ihr seid alle nichts und darum dreht das Business sich um mich
+Yeah, fick dein Facebook-Profil, Junge
+Du bist nicht real, Junge, lass die Straße aus dem Spiel, Junge
+Und ich scheiß auf eure Interviews, ihr Dreckslügner
+Meine allerbesten Freunde, es sind sechs Brüder
+Die Fotzen wollen Geld verdienen mit meiner Story
+Ich bin King auf den Straßen, für immer Sonny
+[Hook]
+Es ist Gang-Fight, wenn der Beat nicht mehr läuftIhr habt alle keine Eier, wenn der Beat nicht mehr läuftDu musst auch hart sein, wenn der Beat nicht mehr läuftIhr seid Fotzen, wenn der Beat nicht mehr läuft, yeah!
+Es ist Gang-Fight, wenn der Beat nicht mehr läuftIhr habt alle keine Eier, wenn der Beat nicht mehr läuftDu musst auch hart sein, wenn der Beat nicht mehr läuftIhr seid Fotzen, wenn der Beat nicht mehr läuft, yeah!
+[Outro: Scratches]
+„Jetzt kommt meine Zeit, siehst du, wie ich auf dich kacke?“
+„Denkst, ich bin zu hart für deutschen Rap?“
+„Flext, ab jetzt heißt es: Gangsterrap“
+„Wozu soll ich jetzt noch nett sein? Ich hol' mir deinen Arsch.“
+„Jetzt kommt meine Zeit, siehst du, wie ich auf dich kacke?“
+„Denkst, ich bin zu hart für deutschen Rap?“
+„Flext, ab jetzt heißt es: Gangsterrap“
+„Wozu soll ich jetzt noch nett sein? Ich hol' mir deinen Arsch.“
+</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -887,8 +1282,56 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">[Part 1]Ich mach' die Augen zu und wünsch' mir, dass ihr Toys verrecktWas ist deutscher Rap? Schwul, so wie Volker BeckIch hab die Nase so gestrichen voll, dass ich nicht mehr weißWen ich dissen soll, ihr seid alle HurensöhneIch wasche Geld in meinen Pseudofirm'nUnd RTL hat Paranoia, denn wir könnten das Gebäude stürm'nGhetto-GSG 9, Ghetto-SEKWenn ich Geldscheine zähle, rappst du Kecko sechzehn Bars, yeahGeh und frag' die Gangster, wer der Härteste istDeine Freundin darf nicht blasen mit dem HerpesgesichtIch bin zu hart für's Radio, zu explizitUnd ich trete auf dich ein, bis du blutest, du piç, yeahFicke deine Mutter auf der WohnzimmercouchUnd die Nutte schreit dich an: "Du Hurensohn, nehm' mal auf!"Ich schreibe keine StatementsIch schreibe 10-Millionen-Dollar-ChecksUnd komme mit den Gangstern auf dein Sommerfest[Hook]Sonny und die Gang, Nutte, renn', wenn du uns siehstBevor dir Blut aus dem Mund fließtDenn sonst hilft dir auch kein Wunder mehrDu bist gefickt, Junge, wenn die getönte Scheibe runterfährt, yeahSonny und die Gang, Nutte, renn', wenn du uns siehstBevor dir Blut aus dem Mund fließtDenn sonst hilft dir auch kein Wunder mehrDu bist gefickt, Junge, wenn die getönte Scheibe runterfährt, yeah
-[Part 2]Sonny und die Gang, komm, ich zeig' dir, was ein Asi istUnd du wirst nach ein paar Schellen zu 'nem PazifistSowas nennt man hier Methoden zur ErziehungWir haben keine Skrupel und bedrohen die RegierungNenn' es Völkermord oder LandfriedensbruchIch kann machen, dass von Stetten meinen Schwanz wieder lutschtIch kann machen, dass ihr alle nicht mehr rappen dürftIch bin der Boss für euch Fotzen, so wie Captain KirkYeah, scheiß auf deine Zeitung, Junge, fick deine PresseSchreib' mal drüber, wie ich dir die X-Beine breche100.000 Euro für ein Feature und ich lehne abScheiß noch immer auf das Label mit dem SägeblattDeine Missgeburteneltern chillen auf der SegelyachtAber Sonny hat Connections wie ein TelemastIch bring' die Sache hier ins Rollen wie ein KegelclubUnd die Basy macht den Schädelbruch[Hook]Sonny und die Gang, Nutte, renn', wenn du uns siehstBevor dir Blut aus dem Mund fließtDenn sonst hilft dir auch kein Wunder mehrDu bist gefickt, Junge, wenn die getönte Scheibe runterfährt, yeahSonny und die Gang, Nutte, renn', wenn du uns siehstBevor dir Blut aus dem Mund fließtDenn sonst hilft dir auch kein Wunder mehrDu bist gefickt, Junge, wenn die getönte Scheibe runterfährt, yeah
+          <t xml:space="preserve">[Part 1]
+Ich mach' die Augen zu und wünsch' mir, dass ihr Toys verreckt
+Was ist deutscher Rap? Schwul, so wie Volker Beck
+Ich hab die Nase so gestrichen voll, dass ich nicht mehr weißWen ich dissen soll, ihr seid alle Hurensöhne
+Ich wasche Geld in meinen Pseudofirm'n
+Und RTL hat Paranoia, denn wir könnten das Gebäude stürm'nGhetto-GSG 9, Ghetto-SEK
+Wenn ich Geldscheine zähle, rappst du Kecko sechzehn Bars, yeah
+Geh und frag' die Gangster, wer der Härteste ist
+Deine Freundin darf nicht blasen mit dem Herpesgesicht
+Ich bin zu hart für's Radio, zu explizit
+Und ich trete auf dich ein, bis du blutest, du piç, yeah
+Ficke deine Mutter auf der Wohnzimmercouch
+Und die Nutte schreit dich an: "Du Hurensohn, nehm' mal auf!"
+Ich schreibe keine Statements
+Ich schreibe 10-Millionen-Dollar-Checks
+Und komme mit den Gangstern auf dein Sommerfest
+[Hook]
+Sonny und die Gang, Nutte, renn', wenn du uns siehst
+Bevor dir Blut aus dem Mund fließt
+Denn sonst hilft dir auch kein Wunder mehr
+Du bist gefickt, Junge, wenn die getönte Scheibe runterfährt, yeah
+Sonny und die Gang, Nutte, renn', wenn du uns siehst
+Bevor dir Blut aus dem Mund fließt
+Denn sonst hilft dir auch kein Wunder mehr
+Du bist gefickt, Junge, wenn die getönte Scheibe runterfährt, yeah
+[Part 2]
+Sonny und die Gang, komm, ich zeig' dir, was ein Asi ist
+Und du wirst nach ein paar Schellen zu 'nem PazifistSowas nennt man hier Methoden zur Erziehung
+Wir haben keine Skrupel und bedrohen die Regierung
+Nenn' es Völkermord oder Landfriedensbruch
+Ich kann machen, dass von Stetten meinen Schwanz wieder lutscht
+Ich kann machen, dass ihr alle nicht mehr rappen dürft
+Ich bin der Boss für euch Fotzen, so wie Captain Kirk
+Yeah, scheiß auf deine Zeitung, Junge, fick deine Presse
+Schreib' mal drüber, wie ich dirdie X-Beinebreche
+100.000 Euro für ein Feature und ich lehne ab
+Scheiß noch immer auf das Label mit dem Sägeblatt
+Deine Missgeburteneltern chillen auf der Segelyacht
+Aber Sonny hat Connections wie ein Telemast
+Ich bring' die Sache hier ins Rollen wie ein Kegelclub
+Und die Basy macht den Schädelbruch
+[Hook]
+Sonny und die Gang, Nutte, renn', wenn du uns siehst
+Bevor dir Blut aus dem Mund fließt
+Denn sonst hilft dir auch kein Wunder mehr
+Du bist gefickt, Junge, wenn die getönte Scheibe runterfährt, yeah
+Sonny und die Gang, Nutte, renn', wenn du uns siehst
+Bevor dir Blut aus dem Mund fließt
+Denn sonst hilft dir auch kein Wunder mehr
+Du bist gefickt, Junge, wenn die getönte Scheibe runterfährt, yeah
 </t>
         </is>
       </c>
@@ -941,8 +1384,55 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[Hook] (x2)(Scratches) "Sellin' drugs in the streets""Kick in the door" Ich muss gucken, wo ich bleib, yeah(Scratches) "Showin' niggas, how the shit go""Back in the Game" Ich muss gucken, wo ich bleib, yeah[Verse 1]Wer ist hart, wie ich, mit dem Schwanz in der Hand?Zieh' die Line vor dem Richter auf der Anklagebank, yeahNagelneue Air Max, ich ziehe dir die Schuhe abUnd das MacBook Pro aus deinem Jute-SackDu willst Koks kaufen? Junge, du wirst abgezogenNehm' mir deine Kohle und verschwinde, keine Macht den DrogenIch muss gucken, wo ich bleib, ihr scheiß BonzenkinderBrauch' 'ne neue Daunenjacke, denn bald kommt der WinterIm Vorbeigehen 'ne Fanta geschnapptUnd ich zieh' der Russenschlampe ihre Handtasche ab, yeahKoka hält mich wach und der Hunger macht mich AggroUnd jeder zweite, gottverdammte Brief ist vom InkassoIch bau' mir mit der Kacke hier ein Standbein aufBring' die ganze Beute in ein PfandleihausIch habe kein Gewissen und ich habe kein NiveauWo ich herkomm', ist Tony Montana ein Idol, yeah[Hook] (x2)(Scratches) "Sellin' drugs in the streets""Kick in the door" Ich muss gucken, wo ich bleib, yeah(Scratches) "Showin' niggas, how the shit go""Back in the Game" Ich muss gucken, wo ich bleib, yeah
-[Verse 2]Im wahrsten Sinne des Wortes liegt das Geld auf der StraßeDu willst mit mir ficken, doch du fällst auf die NaseIch habe einen Plan und auf Schule keinen BockDie Arge therapiert mich, doch ich suche keinen Job, yeahRippe ein paar Touries ab am KurfürstendammCheck das Nokia, die Junkies klingeln durch für ein GrammGib mir Bares für die Ware aus dem KaDeWeBunker' Kohle unter'm Bett, denn ich spare auf den AMGHäng' die ganze Nacht am Späti mit den ButterflysBis die Bullen kommen, denn ich geh' nicht, ohne PlatzverweisAuf der Jagd in den Straßen wie 'ne RaubkatzePäckchen in der Bauchtasche, voll auf TilidinJeden Tag Hustle, Köfte und FalafelBig-City-Flavour, Graffiti-SprayerUnd irgendwann hab ich den ganz dicken Fisch an der AngelDoch bis dahin ist es rumble in the jungle[Hook] (x2)(Scratches) "Sellin' drugs in the streets""Kick in the door" Ich muss gucken, wo ich bleib, yeah(Scratches) "Showin' niggas, how the shit go""Back in the Game" Ich muss gucken, wo ich bleib, yeah</t>
+          <t>[Hook] (x2)
+(Scratches)"Sellin' drugs in the streets"
+"Kick in the door"Ich muss gucken, wo ich bleib, yeah
+(Scratches)"Showin' niggas, how the shit go"
+"Back in the Game"Ich muss gucken, wo ich bleib, yeah
+[Verse 1]
+Wer ist hart, wie ich, mit dem Schwanz in der Hand?
+Zieh' die Line vor dem Richter auf der Anklagebank, yeah
+Nagelneue Air Max, ich ziehe dir die Schuhe ab
+Und das MacBook Pro aus deinem Jute-Sack
+Du willst Koks kaufen? Junge, du wirst abgezogen
+Nehm' mir deine Kohle und verschwinde,keine Macht den Drogen
+Ich muss gucken, wo ich bleib, ihr scheiß Bonzenkinder
+Brauch' 'ne neue Daunenjacke, denn bald kommt der Winter
+Im Vorbeigehen 'ne Fanta geschnappt
+Und ich zieh' der Russenschlampe ihre Handtasche ab, yeah
+Koka hält mich wach und der Hunger macht mich Aggro
+Und jeder zweite, gottverdammte Brief ist vom Inkasso
+Ich bau' mir mit der Kacke hier ein Standbein auf
+Bring' die ganze Beute in ein Pfandleihaus
+Ich habe kein Gewissen und ich habe kein Niveau
+Wo ich herkomm', ist Tony Montana ein Idol, yeah
+[Hook] (x2)
+(Scratches)"Sellin' drugs in the streets"
+"Kick in the door"Ich muss gucken, wo ich bleib, yeah
+(Scratches)"Showin' niggas, how the shit go"
+"Back in the Game"Ich muss gucken, wo ich bleib, yeah
+[Verse 2]
+Im wahrsten Sinne des Wortes liegt das Geld auf der Straße
+Du willst mit mir ficken, doch du fällst auf die Nase
+Ich habe einen Plan und auf Schule keinen Bock
+Die Arge therapiert mich, doch ich suche keinen Job, yeah
+Rippe ein paar Touries ab am Kurfürstendamm
+Check das Nokia, die Junkies klingeln durch für ein Gramm
+Gib mir Bares für die Ware aus dem KaDeWe
+Bunker' Kohle unter'm Bett, denn ich spare auf den AMG
+Häng' die ganze Nacht am Späti mit den Butterflys
+Bis die Bullen kommen, denn ich geh' nicht, ohne Platzverweis
+Auf der Jagd in den Straßen wie 'ne Raubkatze
+Päckchen in der Bauchtasche, voll auf Tilidin
+Jeden Tag Hustle,Köfte und Falafel
+Big-City-Flavour,Graffiti-Sprayer
+Und irgendwann hab ich den ganz dicken Fisch an der Angel
+Doch bis dahin ist esrumble in the jungle
+[Hook] (x2)
+(Scratches)"Sellin' drugs in the streets"
+"Kick in the door"Ich muss gucken, wo ich bleib, yeah
+(Scratches)"Showin' niggas, how the shit go"
+"Back in the Game"Ich muss gucken, wo ich bleib, yeah</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -994,8 +1484,45 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[Verse 1]Du bist hier ganz auf dich allein gestellt, es gibt keine heile WeltKeine Gnade und man regelt seine Scheiße selbstDeine Feinde machen Staub aus deinen KnochenDas Braune in den Socken und Vertrauen wird gebrochen, undDarum ist das Geld mein einziger FreundDenn wenn du wieder Scheiße frisst, dann bleibt niemand treuDie Straße macht dich groß und die Straße macht dich kleinLeider kannst du das Gewicht auf dieser Waage nicht verteil'nDir wird immer nur erzählt, dass du es raus schaffen kannstDoch das Ghetto hat keinen Schalter, den du aus machen kannstEs ist in dir drin, weil es dich verfolgt, wie ein SchattenDie Straße interessiert sich nicht für goldene PlattenEs zählt hier, wer du bist, was du machst, wen du fickstWeil du 'nen Haftbefehl, statt Auto, zum Achtzehnten kriegstWenn du am Boden liegst, dann fallen alleÜber dich wie Leichenschänder - und darum bin ich Einzelgänger[Hook]Hier im Ghetto gibt es 1000 Storys über dichMenschen lügen, aber lila Scheine lügen nichtUnd selbst die aller-allergrößten Feinde grüßen sichMenschen lügen, aber lila Scheine lügen nichtHier im Ghetto gibt es 1000 Storys über dichMenschen lügen, aber lila Scheine lügen nichtUnd selbst die aller-allergrößten Feinde grüßen sichMenschen lügen, aber lila Scheine lügen nicht
-[Verse 2]Und du verlierst dich hier im Ghetto wie im LabyrinthScheiß auf morgen, du weißt heute nicht mal, was es bringtDenn wenn jeder, statt zu reden, eine Waffe nimmtBleibt dir nur noch, drauf zu achten, dass die Kasse stimmtIch hab die Straße in mir, hab die Straße studiertDu wirst als Kind von den Gangs als Soldat rekrutiertEs gibt keine Freunde hier, im Herzen von BerlinDenn du bist hier draußen gerade so viel wert, wie du verdienstYeah, und auch ohne Schulabschluss tankst du hier denAMG mit Super Plus, keiner ist dein Bruder nach 'nem BruderkussBester Freund, größter Feind lacht dir ins GesichtNimmt dich in den Arm und verpasst dir einen Stich, yeahDas ist das Leben, Junge, siehst du, wie die Krähen kreisen?Weil dich Hyänen jagen, darfst du niemals stehen bleibenEs gibt keine Freunde, keine Brüder, keine KumpelEs ist fressen und gefressen werden hier im Dschungel[Hook]Hier im Ghetto gibt es 1000 Storys über dichMenschen lügen, aber lila Scheine lügen nichtUnd selbst die aller-allergrößten Feinde grüßen sichMenschen lügen, aber lila Scheine lügen nichtHier im Ghetto gibt es 1000 Storys über dichMenschen lügen, aber lila Scheine lügen nichtUnd selbst die aller-allergrößten Feinde grüßen sichMenschen lügen, aber lila Scheine lügen nicht</t>
+          <t>[Verse 1]
+Du bist hier ganz auf dich allein gestellt, es gibt keine heile WeltKeine Gnade und man regelt seine Scheiße selbst
+Deine Feinde machen Staub aus deinen Knochen
+Das Braune in den Sockenund Vertrauen wird gebrochen, und
+Darum ist das Geld mein einziger Freund
+Denn wenn du wieder Scheiße frisst, dann bleibt niemand treu
+Die Straße macht dich groß und die Straße macht dich klein
+Leider kannst du das Gewicht auf dieser Waage nicht verteil'n
+Dir wird immer nur erzählt, dass du es raus schaffen kannst
+Doch das Ghetto hat keinen Schalter, den du aus machen kannst
+Es ist in dir drin, weil es dich verfolgt, wie ein Schatten
+Die Straße interessiert sich nicht für goldene Platten
+Es zählt hier, wer du bist, was du machst, wen du fickst
+Weil du 'nen Haftbefehl, statt Auto, zum Achtzehnten kriegst
+Wenn du am Boden liegst, dann fallen alle
+Über dich wie Leichenschänder - und darum bin ich Einzelgänger
+[Hook]
+Hier im Ghetto gibt es 1000 Storys über dichMenschen lügen, aber lila Scheine lügen nichtUnd selbst die aller-allergrößten Feinde grüßen sichMenschen lügen, aber lila Scheine lügen nicht
+Hier im Ghetto gibt es 1000 Storys über dichMenschen lügen, aber lila Scheine lügen nichtUnd selbst die aller-allergrößten Feinde grüßen sichMenschen lügen, aber lila Scheine lügen nicht
+[Verse 2]
+Und du verlierst dich hier im Ghetto wie im Labyrinth
+Scheiß auf morgen, du weißt heute nicht mal, was es bringt
+Denn wenn jeder, statt zu reden, eine Waffe nimmt
+Bleibt dir nur noch, drauf zu achten, dass die Kasse stimmt
+Ich hab die Straße in mir, hab die Straße studiert
+Du wirst als Kind von den Gangs als Soldat rekrutiert
+Es gibt keine Freunde hier, im Herzen von Berlin
+Denn du bist hier draußen gerade so viel wert, wie du verdienst
+Yeah, und auch ohne Schulabschluss tankst du hier den
+AMG mit Super Plus, keiner ist dein Bruder nach 'nem Bruderkuss
+Bester Freund, größter Feind lacht dir ins Gesicht
+Nimmt dich in den Arm und verpasst dir einen Stich, yeah
+Das ist das Leben, Junge, siehst du, wie die Krähen kreisen?
+Weil dich Hyänen jagen, darfst du niemals stehen bleiben
+Es gibt keine Freunde, keine Brüder, keine Kumpel
+Es ist fressen und gefressen werden hier im Dschungel
+[Hook]
+Hier im Ghetto gibt es 1000 Storys über dichMenschen lügen, aber lila Scheine lügen nichtUnd selbst die aller-allergrößten Feinde grüßen sichMenschen lügen, aber lila Scheine lügen nicht
+Hier im Ghetto gibt es 1000 Storys über dichMenschen lügen, aber lila Scheine lügen nichtUnd selbst die aller-allergrößten Feinde grüßen sichMenschen lügen, aber lila Scheine lügen nicht</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1047,7 +1574,20 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[Gespräch zwischen Bushido &amp; Ali Bumaye]Ey, ganz ehrlich, ist dein Ernst, Alter? Was denn, Alter?Wie lange lässt du mich denn noch hier stehen in dieser Scheiß Kälte, Mann? Glaubst du, ich-Ey, du rufst mich um 1 Uhr Nachts an, Alter und sagst mir, ich soll - red' doch am Telefon, was willst du denn?Ich hab dir gesagt, is' dringend, und warum soll ich mit dir am Telefon reden? Du weißt ganz genau, dass wir nicht am Telefon reden, Alter. Also, kommst du jetzt so mit oder kommst du jetzt nicht mit, Alter?Klar komm' ich mit. Wo gehen wir hin?Ja, ist doch egal, wo wir hingehen. Ja, okay ich bin dabei. Ja, dann los, komm, Alter. Los. Immer die selbe Scheiße. (Ali und Bushido steigen ins Auto ein)Okay, jetzt pass auf. Wir holen noch die Jungs ab und dann sind wir 'ne kurze Weile unterwegs. Okay. Ich werd' dir jetzt nicht sagen, wohin wir fahren, aber du bist dabei, oder? (Nachrichtenton)Dikkah, mir ist egal, wohin wir fahren, ich bin dabei. Und nun steck' dein scheiß Handy weg, Alter! Ja, ist ja gut. Also... Los...</t>
+          <t xml:space="preserve">[Gespräch zwischen Bushido &amp; Ali Bumaye]
+Ey, ganz ehrlich, ist dein Ernst, Alter? Was denn, Alter?
+Wie lange lässt du mich denn noch hier stehen in dieser Scheiß Kälte, Mann? Glaubst du, ich-
+Ey, du rufst mich um 1 Uhr Nachts an, Alter und sagst mir, ich soll - red' doch am Telefon, was willst du denn?
+Ich hab dir gesagt, is' dringend, und warum soll ich mit dir am Telefon reden? Du weißt ganz genau, dass wir nicht am Telefon reden, Alter. Also, kommst du jetzt so mit oder kommst du jetzt nicht mit, Alter?
+Klar komm' ich mit. Wo gehen wir hin?
+Ja, ist doch egal, wo wir hingehen. Ja, okay ich bin dabei. 
+Ja, dann los, komm, Alter. Los. Immer die selbe Scheiße. 
+(Ali und Bushido steigen ins Auto ein)
+Okay, jetzt pass auf. Wir holen noch die Jungs ab und dann sind wir 'ne kurze Weile unterwegs. 
+Okay. Ich werd' dir jetzt nicht sagen, wohin wir fahren, aber du bist dabei, oder? (Nachrichtenton)
+Dikkah, mir ist egal, wohin wir fahren, ich bin dabei. 
+Und nun steck' dein scheiß Handy weg, Alter! Ja, ist ja gut. 
+Also... Los... </t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1099,8 +1639,43 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[Part 1]Ich hab' genug von deinem Katz und MausHeute hol' ich mir deinen Arsch und übe Rache ausHab' die Basy und die Knarren eingepacktTippe in meinen Navi jetzt den Namen deiner StadtEs sind vier Mann in meinem S63Suchen dich seit Wochen, doch du Drecksschwein versteckst dichWir sind pechschwarz gekleidet für die GeiselnahmeStell' den Wagen ab in irgendeiner SeitenstraßeEs ist Nacht, du hast die Lichter alle ausgeknipstDoch ich weiß von deiner Bitch, dass du zu Hause bistWir kommen in dein Wohnzimmer durch den KellerDu denkst, du machst die Biege, doch du bist nicht Uri GellerMit Tritten und der Basy jag' ich dich durch deine BudeErkenne dann im Dunkeln das Gesicht von einer HureEs ist deine Mutter und die Nutte schreit(Schussgeräusche) Tut mir leid, aber musste sein[Gespräch zwischen Bushido &amp; Ali]Alter, beeil dich doch mal, beeil dich, Mann!Mach' die scheiß Tür zu, Mann!Ey, Dicka, Alter, meinst du, der lebt noch?Ey, ganz ehrlich, wenn er nicht lebt, ist besser für ihnAlter, ganz ehrlich, bevor wir wieder nach Hause fahrenUnd bevor wir jetzt das machen, was wir machen werdenEr soll beten, dass er stirbt, bevor wir ihn wieder raus lassenAlter, ohne ScheißEy, Dicka, fahr mal kurz hier, bei diesem, am McDonaldsIch will noch die Hände waschen, alter. Außerdem hab ich eh Hunger Ist dein Ernst? Alter, ich schwörs dir, ich hab' Hunger, Mann. Ist dein Ernst, Alter? Ja, okay, komm
-[Part 2]Du kommst im Kofferraum mit, zurück in meine StadtAlle warten drauf, bring' dich in ein LagerhausUnd wir halten dich in Ketten wie ein HundIch lasse dich vom Boden essen wie ein HundUnd es vergehen Tage, Nächte, WochenDu magerst ab, bis auf die KnochenIch bring' dir jeden Tag das Spieglein, SpiegleinGuck dich an, du Nuttenkind, versuch', nochmal zu freestylenUnd du wimmerst: „Bitte chill, Anis, ich mache, was du willst, Anis“Zu spät dafür, du HilfsheriffAls ob ich irgendwas von so 'nem Hurensohn bräuchteIch will sehen, wie du stirbst, du KronzeugeDie ganze Scheiße hier hast du dir selber eingebrocktPisst du Sonny Black ans Bein, kostet dich das dein' KopfHör auf zu heulen jetzt, Schluss mit GeredeFick auf dein Drecksleben - Schuss in die Schläfe[Hook]Wenn das Licht ausgeht und du bist ganz alleinWenn du gerade nicht dran denkst, holt das Schicksal dich einWenn du alles schon vergessen hast, die Lügen und den SchmutzDann macht das Leben mit dir Schluss, yeahWenn das Licht ausgeht und du bist ganz alleinWenn du gerade nicht dran denkst, holt das Schicksal dich einWenn du alles schon vergessen hast, die Lügen und den SchmutzDann macht das Leben mit dir Schluss, yeah</t>
+          <t>[Part 1]
+Ich hab' genug von deinem Katz und Maus
+Heute hol' ich mir deinen Arsch und übe Rache aus
+Hab' die Basy und die Knarren eingepackt
+Tippe in meinen Navi jetzt den Namen deiner Stadt
+Es sind vier Mann in meinem S63
+Suchen dich seit Wochen, doch du Drecksschwein versteckst dich
+Wir sind pechschwarz gekleidet für die Geiselnahme
+Stell' den Wagen ab in irgendeiner Seitenstraße
+Es ist Nacht, du hast die Lichter alle ausgeknipst
+Doch ich weiß von deiner Bitch, dass du zu Hause bist
+Wir kommen in dein Wohnzimmer durch den Keller
+Du denkst, du machst die Biege, doch du bist nicht Uri Geller
+Mit Tritten und der Basy jag' ich dich durch deine Bude
+Erkenne dann im Dunkeln das Gesicht von einer HureEs ist deine Mutter und die Nutte schreit(Schussgeräusche) Tut mir leid, aber musste sein
+[Gespräch zwischen Bushido &amp;Ali]
+Alter, beeil dich doch mal, beeil dich, Mann!
+Mach' die scheiß Tür zu, Mann!
+Ey, Dicka, Alter, meinst du, der lebt noch?
+Ey, ganz ehrlich, wenn er nicht lebt, ist besser für ihnAlter, ganz ehrlich, bevor wir wieder nach Hause fahrenUnd bevor wir jetzt das machen, was wir machen werdenEr soll beten, dass er stirbt, bevor wir ihn wieder raus lassenAlter, ohne Scheiß
+Ey, Dicka, fahr mal kurz hier, bei diesem, am McDonaldsIch will noch die Hände waschen, alter. Außerdem hab ich eh Hunger Ist dein Ernst? Alter, ich schwörs dir, ich hab' Hunger, Mann.Ist dein Ernst, Alter? Ja, okay, komm
+[Part 2]
+Du kommst im Kofferraum mit, zurück in meine Stadt
+Alle warten drauf, bring' dich in ein Lagerhaus
+Und wir halten dich in Ketten wie ein HundIch lasse dich vom Boden essen wie ein Hund
+Und es vergehen Tage, Nächte, WochenDu magerst ab, bis auf die Knochen
+Ich bring' dir jeden Tag das Spieglein, Spieglein
+Guck dich an, du Nuttenkind, versuch', nochmal zu freestylen
+Und du wimmerst: „Bitte chill, Anis, ich mache, was du willst, Anis“
+Zu spät dafür, du Hilfsheriff
+Als ob ich irgendwas von so 'nem Hurensohn bräuchte
+Ich will sehen, wie du stirbst, du Kronzeuge
+Die ganze Scheiße hier hast du dir selber eingebrockt
+Pisst du Sonny Black ans Bein, kostet dich das dein' Kopf
+Hör auf zu heulen jetzt, Schluss mit GeredeFick auf dein Drecksleben - Schuss in die Schläfe
+[Hook]
+Wenn das Licht ausgeht und du bist ganz alleinWenn du gerade nicht dran denkst, holt das Schicksal dich einWenn du alles schon vergessen hast, die Lügen und den SchmutzDann macht das Leben mit dir Schluss, yeahWenn das Licht ausgeht und du bist ganz alleinWenn du gerade nicht dran denkst, holt das Schicksal dich einWenn du alles schon vergessen hast, die Lügen und den SchmutzDann macht das Leben mit dir Schluss, yeah</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1152,9 +1727,72 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[Hook]Es geht Zahnstocher-Rap, Butterfly-RapFresse, du Kek, ich bring' West-Berlin backCordonsport-Rap, Air-Max-RapKing Sonny Black, Nutte, zeig' RespektZahnstocher-Rap, Butterfly-RapFresse, du Kek, ich bring' West-Berlin backCordonsport-Rap, Air-Max-RapKing Sonny Black, Nutte, zeig' Respekt[Part 1]Du denkst, Rap ist Spaß, bleib in deinem Dorf, du KekIch lass die Zombies vor sich hinkrepieren wie Walking DeadAlle wissen, Sonny Black ist nicht zum Spaßen aufgelegtHab den Straßensound geprägt, geh' dem Paten aus dem WegDeine Freunde hauen rein, wenn mein Wagen parktPapa war nicht da und darum brauch' ich kein' VaterstaatManchmal frag' ich mich, warum ihr Krüppel rapptUnd ich ficke eure Eltern und ihren ungeschützten Sex, yeahEs ist Sonny Black, der Ruler von BerufUnd du Missgeburt blamierst dich wie ein Schwuler in der JUICEIch kann machen, dass die ganzen Bonzenkinder wieder Yayo zieh'nEuer Hass ist legitim, Berlin, Medellín36 Jahre und bereue keine FehlerWo bin heute ich? Wo sind heute meine Lehrer?Und die Vögel gehen bei den Bullen vorsing'Bei mir läuft wie Forrest Gump, bei dir läuft wie Stephen Hawking
-[Hook]Es geht Zahnstocher-Rap, Butterfly-RapFresse, du Kek, ich bring' West-Berlin backCordonsport-Rap, Air-Max-RapKing Sonny Black, Nutte, zeig' RespektZahnstocher-Rap, Butterfly-RapFresse, du Kek, ich bring' West-Berlin backCordonsport-Rap, Air-Max-RapKing Sonny Black, Nutte, zeig' Respekt[Part 2]Dein Dreckskaff bleibt ein weißer Fleck auf meiner LandkarteFangfrage: Wer nimmt dich ernst mit deiner Ansage?Wer soll dir glauben, dass du irgendwas zu sagen hättest?Du bist ein Hollywood-Kanake, der die Haare glättetKomm, wir treffen uns um halb Acht, HermannplatzDu willst diskutieren, doch ich zeig' dir, wie man Ärger machtMukke für die Jungs, die in der U-Bahn deinen Opa schlagenUnd "Ich ficke deine Mutter" ist mein roter FadenYeah, lass mal heute klauen gehen und schwänzenCCN ist Therapie und Rapper sind PatientenIch kann mir einfach alles von euch nehmenWenn ich etwas braucheIch bin noch jung und komm auf Koka zur Semester-SauseEs gibt Nackenklatscher gratis im FreibadGangster von der Straße hängt mit Gangstern aus dem ReichstagIch bau 'ne Villa, du ein Luftschloss, deine Hippie-ElternHängen im Park herum und denken, es ist Woodstock
-[Hook]Es geht Zahnstocher-Rap, Butterfly-RapFresse, du Kek, ich bring' West-Berlin backCordonsport-Rap, Air-Max-RapKing Sonny Black, Nutte, zeig' RespektZahnstocher-Rap, Butterfly-RapFresse, du Kek, ich bring' West-Berlin backCordonsport-Rap, Air-Max-RapKing Sonny Black, Nutte, zeig' Respekt[Outro: Scratches]"Talk slick, you get your neck slit quick""They say I walk around like I got an S on my chest""Real street niggas ain't having that shit""Feel my shots""Talk slick, you get your neck slit quick""They say I walk around like I got an S on my chest""Real street niggas ain't having that shit""Feel my shots"</t>
+          <t>[Hook]
+Es geht Zahnstocher-Rap, Butterfly-Rap
+Fresse, du Kek, ich bring' West-Berlin back
+Cordonsport-Rap, Air-Max-Rap
+King Sonny Black, Nutte, zeig' Respekt
+Zahnstocher-Rap, Butterfly-Rap
+Fresse, du Kek, ich bring' West-Berlin back
+Cordonsport-Rap, Air-Max-Rap
+King Sonny Black, Nutte, zeig' Respekt
+[Part 1]
+Du denkst, Rap ist Spaß, bleib in deinem Dorf, du Kek
+Ich lass die Zombies vor sich hinkrepieren wie Walking Dead
+Alle wissen, Sonny Black ist nicht zum Spaßen aufgelegt
+Hab den Straßensound geprägt, geh' dem Paten aus dem Weg
+Deine Freunde hauen rein, wenn mein Wagen parkt
+Papa war nicht da und darum brauch' ich kein' Vaterstaat
+Manchmal frag' ich mich, warum ihr Krüppel rappt
+Und ich ficke eure Eltern und ihren ungeschützten Sex, yeah
+Es ist Sonny Black, der Ruler von Beruf
+Und du Missgeburt blamierst dich wie ein Schwuler in der JUICE
+Ich kann machen, dass die ganzen Bonzenkinder wieder Yayo zieh'n
+Euer Hass ist legitim,Berlin,Medellín
+36 Jahre und bereue keine Fehler
+Wo bin heute ich? Wo sind heute meine Lehrer?
+Und die Vögel gehen bei den Bullen vorsing'
+Bei mir läuft wie Forrest Gump, bei dir läuft wie Stephen Hawking
+[Hook]
+Es geht Zahnstocher-Rap, Butterfly-Rap
+Fresse, du Kek, ich bring' West-Berlin back
+Cordonsport-Rap, Air-Max-Rap
+King Sonny Black, Nutte, zeig' Respekt
+Zahnstocher-Rap, Butterfly-Rap
+Fresse, du Kek, ich bring' West-Berlin back
+Cordonsport-Rap, Air-Max-Rap
+King Sonny Black, Nutte, zeig' Respekt
+[Part 2]
+Dein Dreckskaff bleibt ein weißer Fleck auf meiner Landkarte
+Fangfrage: Wer nimmt dich ernst mit deiner Ansage?
+Wer soll dir glauben, dass du irgendwas zu sagen hättest?
+Du bist ein Hollywood-Kanake, der die Haare glättet
+Komm, wir treffen uns um halb Acht, Hermannplatz
+Du willst diskutieren, doch ich zeig' dir, wie man Ärger macht
+Mukke für die Jungs, die in der U-Bahn deinen Opa schlagen
+Und "Ich ficke deine Mutter" ist mein roter Faden
+Yeah, lass mal heute klauen gehen und schwänzen
+CCN ist Therapie und Rapper sind Patienten
+Ich kann mir einfach alles von euch nehmen
+Wenn ich etwas brauche
+Ich bin noch jung und komm auf Koka zur Semester-Sause
+Es gibt Nackenklatscher gratis im Freibad
+Gangster von der Straße hängt mit Gangstern aus dem Reichstag
+Ich bau 'ne Villa, du ein Luftschloss, deine Hippie-ElternHängen im Park herum und denken, es ist Woodstock
+[Hook]
+Es geht Zahnstocher-Rap, Butterfly-Rap
+Fresse, du Kek, ich bring' West-Berlin back
+Cordonsport-Rap, Air-Max-Rap
+King Sonny Black, Nutte, zeig' Respekt
+Zahnstocher-Rap, Butterfly-Rap
+Fresse, du Kek, ich bring' West-Berlin back
+Cordonsport-Rap, Air-Max-Rap
+King Sonny Black, Nutte, zeig' Respekt
+[Outro: Scratches]
+"Talk slick, you get your neck slit quick""They say I walk around like I got an S on my chest""Real street niggas ain't having that shit"
+"Feel my shots"
+"Talk slick, you get your neck slit quick""They say I walk around like I got an S on my chest""Real street niggas ain't having that shit"
+"Feel my shots"</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1206,8 +1844,57 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>[Part 1]Dieses Leben hat mich so gemacht - was guckst du so, du Spast?Hier ist die Kohle knapp: Knast, Bullen, Drogen, HassDas ist die Rückkehr, ähnlich wie der vierte Rocky-TeilGangster-Rap auf Deutsch - Sonny hat das CopyrightUnd die Kids suchen die Kacke jetzt bei SpotifyWie ich Rapperhunde ficke: Es ist DoggystyleWeil ich von deinen Eltern immer missverstanden werdeKomm' ich in dein Dorf und hinterlass' verbrannte ErdeEs ist Sonny Black, live aus dem PrivatjetYeah, Warenübergabe auf dem ParkdeckEs ist Tekken 3 - Mortal KombatDu Opfer, komm' nach Schöneberg und zeig' mir deinen SongtextGeh' zur Seite, Spast, der Gangster ist am Mikrofon!Alle deine Freunde landen auf der IntensivstationDas ist EGJ, hier passt nicht jeder reinWenn wir kommen, gibt's 'ne Massenschlägerei, yeah![Hook]Das ist der Weg eines Kriegers, denn ich bin nicht wie duDenkst du Fotze echt, du überlebst den Finishing Move?Deine Worte sind nur Schall und Rauch!Junge, wenn ich will, seid ihr alle staub, yeah!Das ist der Weg eines Kriegers, denn ich bin nicht wie duDenkst du Fotze echt, du überlebst den Finishing Move?Deine Worte sind nur Schall und Rauch!Junge, wenn ich will, seid ihr alle staub, yeah!
-[Part 2]Wenn ich will, seid ihr alle Staub, ihr seid alle out!Und das Letzte, was du siehst, ist die geballte FaustIch war als kleiner Junge schwer zu erzieh'nKugelsich'rer, Jugendlicher aus dem Herzen BerlinsSchick' den Treffpunkt per SMS: Neukölln, WespennestWo man Kecks wie dich den Bordstein fressen lässtYeah, Junge, du verschwindest hier im Handumdreh'nScheiß' auf deine westliche Welt wie Saddam HusseinDu bist ein Homo-Boy, der Damenwäsche liebtIch bin konservativ - Bin Laden, Rest in PeaceIch bin Underground und hänge nicht auf Malle abDu denkst, du bist sicher, doch die Falle schnappt zuEs ist Blutgeld, Blood Money, Drug MoneyMaskulin-CEO: Bugs BunnyIch bin auf der Jagd wie Buffalo BillDer Gladiator, wie in diesem Russell-Crowe-Film[Hook]Das ist der Weg eines Kriegers, denn ich bin nicht wie duDenkst du Fotze echt, du überlebst den Finishing Move?Deine Worte sind nur Schall und Rauch!Junge, wenn ich will, seid ihr alle staub, yeah!Das ist der Weg eines Kriegers, denn ich bin nicht wie duDenkst du Fotze echt, du überlebst den Finishing Move?Deine Worte sind nur Schall und Rauch!Junge, wenn ich will, seid ihr alle staub, yeah!</t>
+          <t>[Part 1]
+Dieses Leben hat mich so gemacht - was guckst du so, du Spast?
+Hier ist die Kohle knapp: Knast, Bullen, Drogen, Hass
+Das ist die Rückkehr, ähnlich wie der vierte Rocky-Teil
+Gangster-Rap auf Deutsch-Sonny hat das Copyright
+Und die Kids suchen die Kacke jetzt bei Spotify
+Wie ich Rapperhunde ficke: Es ist Doggystyle
+Weil ich von deinen Eltern immer missverstanden werde
+Komm' ich in dein Dorf und hinterlass' verbrannte Erde
+Es ist Sonny Black, live aus dem Privatjet
+Yeah, Warenübergabe auf dem Parkdeck
+Es ist Tekken 3-Mortal Kombat
+Du Opfer, komm' nach Schöneberg und zeig' mir deinen Songtext
+Geh' zur Seite, Spast, der Gangster ist am Mikrofon!
+Alle deine Freunde landen auf der Intensivstation
+Das ist EGJ, hier passt nicht jeder reinWenn wir kommen, gibt's 'ne Massenschlägerei, yeah!
+[Hook]
+Das ist der Weg eines Kriegers, denn ich bin nicht wie du
+Denkst du Fotze echt, du überlebst den Finishing Move?
+Deine Worte sind nur Schall und Rauch!
+Junge, wenn ich will, seid ihr alle staub, yeah!
+Das ist der Weg eines Kriegers,denn ich bin nicht wie du
+Denkst du Fotze echt, du überlebst den Finishing Move?
+Deine Worte sind nur Schall und Rauch!
+Junge, wenn ich will, seid ihr alle staub, yeah!
+[Part 2]
+Wenn ich will, seid ihr alle Staub, ihr seid alle out!
+Und das Letzte, was du siehst, ist die geballte Faust
+Ich war als kleiner Junge schwer zu erzieh'n
+Kugelsich'rer, Jugendlicher aus dem Herzen Berlins
+Schick' den Treffpunkt per SMS: Neukölln, Wespennest
+Wo man Kecks wie dich den Bordstein fressen lässt
+Yeah, Junge, du verschwindest hier im Handumdreh'n
+Scheiß' auf deine westliche Welt wie Saddam Hussein
+Du bist ein Homo-Boy, der Damenwäsche liebt
+Ich bin konservativ - Bin Laden, Rest in Peace
+Ich bin Underground und hänge nicht auf Malle ab
+Du denkst, du bist sicher, doch die Falle schnappt zu
+Es ist Blutgeld, Blood Money, Drug Money
+Maskulin-CEO: Bugs Bunny
+Ich bin auf der Jagd wie Buffalo Bill
+Der Gladiator, wie in diesem Russell-Crowe-Film
+[Hook]
+Das ist der Weg eines Kriegers, denn ich bin nicht wie du
+Denkst du Fotze echt, du überlebst den Finishing Move?
+Deine Worte sind nur Schall und Rauch!
+Junge, wenn ich will, seid ihr alle staub, yeah!
+Das ist der Weg eines Kriegers, denn ich bin nicht wie du
+Denkst du Fotze echt, du überlebst den Finishing Move?
+Deine Worte sind nur Schall und Rauch!
+Junge, wenn ich will, seid ihr alle staub, yeah!</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1259,8 +1946,64 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>[Part 1]Okay, nachgeladen und entsichert, check die BassdrumYeah, deutscher Rap ist Hurensohn wie Kay OneIch ficke eure Teeniemütter-Zahnspangen-GangUnd dein Vater hat noch Kacke an den Arschhaaren häng'Ich mach CCN 3 ganz alleine, weil ich kannUnd Patrick, heul nicht rum, ertrag die Scheiße wie ein MannYeah, deine deutschen Rap-Idole küssen meine HandUnd du Fotze bouncest am Rechner wie ein Krüppel deine DrumsIch bin Mister Cordon Sport und das ist Airmax MuzikWer ist Frank White, ich durchlöcher' Flers SUVDiese Rapper spielen Wrestler so wie Mickey RourkeIch guck' deine Videoclips und denke "Was 'ne Missgeburt!"Es ist Benz Klasse S, scheiß auf dein GeschäftEs ist Sonny Black, kein Image, alles echtYeah, du bist gefickt, weil die Straße nicht vergisstIm Mercedes-Van mit Sturmmasken warten wir auf dich, yeah[Hook]Das ist der Sound, wenn dein Kiefer brichtIhr Hurensöhne wolltet mit mir ficken, lieber nichtMann, ich mach Rap wieder hartUnd all die Missgeburten heulen rumNur die stärksten überleben Deutschraps SäuberungDas ist der Sound, wenn dein Kiefer brichtIhr Hurensöhne wolltet mit mir ficken, lieber nichtMann, ich mach Rap wieder hartUnd all die Missgeburten heulen rumNur die stärksten überleben Deutschraps Säuberung
-[Part 2]Yeah, Rap hat keine Rasta-FrisurDeine Hurenmutter liebt dich nur dank FachabiturNutte, guck, wie ich dich kalt macheUnd dein Vater mit der HalbglatzeHängt jetzt an der Nadel wie 'ne SchallplatteEs ist Sonny Black, die Ein-Mann-ArmeeUnd mein Büro ist mein AMGIch erzähl' euch einen Witz, Leute, Fler macht ProfitDicker, Maskulin war gestern, nenn dich HermaphroditWer will Krieg, Nutte?Yeah, ihr seid alle soft, weil ihr Schatten boxtIch schicke deutschen Rap zurück in sein RattenlochDeine Fans sind alle Transen und JunkiesIch mache dich zum Hund und du musst tanzen wie LlambiElectro Ghetto, Gangsterrap aus TitanIch wünsche mir 'nen Autounfall für Michel FriedmanFernsehgarten, RTL, Kay One, Krake PaulGrüß mal deine Mutter, dieses nimmersatte Blasemaul[Hook]Das ist der Sound, wenn dein Kiefer brichtIhr Hurensöhne wolltet mit mir ficken, lieber nichtMann, ich mach Rap wieder hartUnd all die Missgeburten heulen rumNur die stärksten überleben Deutschraps SäuberungDas ist der Sound, wenn dein Kiefer brichtIhr Hurensöhne wolltet mit mir ficken, lieber nichtMann, ich mach Rap wieder hartUnd all die Missgeburten heulen rumNur die stärksten überleben Deutschraps Säuberung</t>
+          <t>[Part 1]
+Okay, nachgeladen und entsichert, check die Bassdrum
+Yeah, deutscher Rap ist Hurensohn wie Kay One
+Ich ficke eure Teeniemütter-Zahnspangen-Gang
+Und dein Vater hat noch Kacke an den Arschhaaren häng'
+Ich mach CCN 3 ganz alleine, weil ich kann
+Und Patrick, heul nicht rum, ertrag die Scheiße wie ein Mann
+Yeah, deine deutschen Rap-Idole küssen meine Hand
+Und du Fotze bouncest am Rechner wie ein Krüppel deine Drums
+Ich bin Mister Cordon Sportund das ist Airmax Muzik
+Wer ist Frank White, ich durchlöcher' Flers SUV
+Diese Rapper spielen Wrestler so wie Mickey Rourke
+Ich guck' deine Videoclips und denke "Was 'ne Missgeburt!"
+Es ist Benz Klasse S, scheiß auf dein Geschäft
+Es ist Sonny Black, kein Image, alles echt
+Yeah, du bist gefickt, weil die Straße nicht vergisst
+Im Mercedes-Van mit Sturmmasken warten wir auf dich, yeah
+[Hook]
+Das ist der Sound, wenn dein Kiefer bricht
+Ihr Hurensöhne wolltet mit mir ficken, lieber nicht
+Mann, ich mach Rap wieder hart
+Und all die Missgeburten heulen rum
+Nur die stärksten überleben Deutschraps Säuberung
+Das ist der Sound, wenn dein Kiefer bricht
+Ihr Hurensöhne wolltet mit mir ficken, lieber nicht
+Mann, ich mach Rap wieder hart
+Und all die Missgeburten heulen rum
+Nur die stärksten überleben Deutschraps Säuberung
+[Part 2]
+Yeah, Rap hat keine Rasta-Frisur
+Deine Hurenmutter liebt dich nur dank Fachabitur
+Nutte, guck, wie ich dich kalt mache
+Und dein Vater mit der Halbglatze
+Hängt jetzt an der Nadel wie 'ne Schallplatte
+Es ist Sonny Black, die Ein-Mann-Armee
+Und mein Büro ist mein AMG
+Ich erzähl' euch einen Witz, Leute, Fler macht Profit
+Dicker, Maskulin war gestern, nenn dich Hermaphrodit
+Wer will Krieg, Nutte?
+Yeah, ihr seid alle soft, weil ihr Schatten boxt
+Ich schicke deutschen Rap zurück in sein Rattenloch
+Deine Fans sind alle Transen und Junkies
+Ich mache dich zum Hund und du musst tanzen wie Llambi
+Electro Ghetto, Gangsterrap aus Titan
+Ich wünsche mir 'nen Autounfall für Michel Friedman
+Fernsehgarten, RTL, Kay One,Krake Paul
+Grüß mal deine Mutter, dieses nimmersatte Blasemaul
+[Hook]
+Das ist der Sound, wenn dein Kiefer bricht
+Ihr Hurensöhne wolltet mit mir ficken, lieber nicht
+Mann, ich mach Rap wieder hart
+Und all die Missgeburten heulen rum
+Nur die stärksten überleben Deutschraps Säuberung
+Das ist der Sound, wenn dein Kiefer bricht
+Ihr Hurensöhne wolltet mit mir ficken, lieber nicht
+Mann, ich mach Rap wieder hart
+Und all die Missgeburten heulen rum
+Nur die stärksten überleben Deutschraps Säuberung</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1312,8 +2055,54 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>[Part 1]Yeah, Sonny Black, yo, ich komme in der DunkelheitPumpe Blei in eure Schädel, weil ihr Hunde seidSechzehn Takte und dein Arsch reißt aufNutte, such dir schon mal einen Grabstein ausYeah, und ich ficke euch im Namen der GerechtigkeitDas ist Tempelhof, wir lassen keine Keks ans MicElectro Ghetto, Heavy Metal FlowSonny Black macht Cash wie Bernie EcclestoneGangster-Rap, es ist TestosteronIch bin back Hurensohn und zwar bad to the boneIch bin all das, was du dich nicht traust zu seinUnd wir könn' zusamm' kein Geld verdien', dann hauste reinIch trag' die Nike Air Uniform, Cordon Sport OutfitCarlo Cokxxx Nutten 3 ist der FaustfickFür die gesamte deutsche RapszenerieUnd ich kack' auf deine Mutter jetzt du Kek, c'est la vie[Hook]Es ist ersguterjunge, Deutschrap Champions LeagueIch lass' euch Fotzen Kacke fressen - Human CentipedeEs ist egal, ob dann an meinen Händen Blut klebtIch hol' mir, was mir zusteht, NutteErsguterjunge, Deutschrap Champions LeagueIch lass' euch Fotzen Kacke fressen - Human CentipedeEs ist egal, ob dann an meinen Händen Blut klebtIch hol' mir, was mir zusteht, Nutte
-[Part 2]Sonny Black, yo, ich komme im MorgengrauenDu willst an der Bong ziehen, aber Rap ist Sport du ClownHänge im arabischen CaféÜber zwei Wochen kein Tageslicht gesehenYeah, wer ist straight wie ich, leg das Mic weg für echten BeefKomm in meine Stadt, wenn du Action liebst, Rest in PeaceDu machst Welle vor den westdeutschen KidsDoch ich bleibe dieser Typ, der deine Exfreundin fickt, yeahEs ist alles meins, weil du tanzt dann nach meiner PfeifeWie ich die Schwuchteln in die Schaufensterscheibe schmeißeGhetto-Rap hin, Ghetto-Rap herDas ist wie das Militär und wir jagen Flizzy FlerAuf einmal macht hier jeder Hurensohn WelleDoch ich kann das regeln aus der TelefonzelleMeine Waffe ist kein BleistiftUnd eine Kugel reicht nicht, wenn du Fotze bei der Polizei snitchst[Hook]Es ist ersguterjunge, Deutschrap Champions LeagueIch lass' euch Fotzen Kacke fressen - Human CentipedeEs ist egal, ob dann an meinen Händen Blut klebtIch hol' mir, was mir zusteht, NutteErsguterjunge, Deutschrap Champions LeagueIch lass' euch Fotzen Kacke fressen - Human CentipedeEs ist egal, ob dann an meinen Händen Blut klebtIch hol' mir, was mir zusteht, Nutte</t>
+          <t>[Part 1]
+Yeah, Sonny Black, yo, ich komme in der Dunkelheit
+Pumpe Blei in eure Schädel, weil ihr Hunde seid
+Sechzehn Takte und dein Arsch reißt auf
+Nutte, such dir schon mal einen Grabstein aus
+Yeah, und ich ficke euch im Namen der Gerechtigkeit
+Das ist Tempelhof, wir lassen keine Keks ans Mic
+Electro Ghetto, Heavy Metal Flow
+Sonny Black macht Cash wie Bernie Ecclestone
+Gangster-Rap, es ist Testosteron
+Ich bin back Hurensohn und zwar bad to the bone
+Ich bin all das, was du dich nicht traust zu sein
+Und wir könn' zusamm' kein Geld verdien', dann hauste rein
+Ich trag' die Nike Air Uniform, Cordon Sport Outfit
+Carlo Cokxxx Nutten 3 ist der Faustfick
+Für die gesamte deutsche Rapszenerie
+Und ich kack' auf deine Mutter jetzt du Kek, c'est la vie
+[Hook]
+Es ist ersguterjunge,Deutschrap Champions League
+Ich lass' euch Fotzen Kacke fressen - Human Centipede
+Es ist egal, ob dann an meinen Händen Blut klebtIch hol' mir, was mir zusteht, Nutte
+Ersguterjunge,Deutschrap Champions League
+Ich lass' euch Fotzen Kacke fressen - Human Centipede
+Es ist egal, ob dann an meinen Händen Blut klebtIch hol' mir, was mir zusteht, Nutte
+[Part 2]
+Sonny Black, yo, ich komme im Morgengrauen
+Du willst an der Bong ziehen, aber Rap ist Sport du Clown
+Hänge im arabischen Café
+Über zwei Wochen kein Tageslicht gesehen
+Yeah, wer ist straight wie ich, leg das Mic weg für echten Beef
+Komm in meine Stadt, wenn du Action liebst, Rest in Peace
+Du machst Welle vor den westdeutschen Kids
+Doch ich bleibe dieser Typ, der deine Exfreundin fickt, yeah
+Es ist alles meins, weil du tanzt dann nach meiner Pfeife
+Wie ich die Schwuchteln in die Schaufensterscheibe schmeiße
+Ghetto-Rap hin, Ghetto-Rap her
+Das ist wie das Militär und wir jagen Flizzy Fler
+Auf einmal macht hier jeder Hurensohn Welle
+Doch ich kann das regeln aus der Telefonzelle
+Meine Waffe ist kein Bleistift
+Und eine Kugel reicht nicht,wenn du Fotze bei der Polizei snitchst
+[Hook]
+Es ist ersguterjunge, Deutschrap Champions League
+Ich lass' euch Fotzen Kacke fressen - Human Centipede
+Es ist egal, ob dann an meinen Händen Blut klebtIch hol' mir, was mir zusteht, Nutte
+Ersguterjunge, Deutschrap Champions League
+Ich lass' euch Fotzen Kacke fressen - Human Centipede
+Es ist egal, ob dann an meinen Händen Blut klebtIch hol' mir, was mir zusteht, Nutte</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1365,7 +2154,31 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Die wichtigsten Ereignisse der PromophaseFebruar 201513. - Release12. - Interview mit All Good - Teil 211. - 1. Single11. - Interview mit Noisey - Teil 210. - Interview mit All Good - Teil 109. - Interview mit Noisey - Teil 106. - Interview mit 16bars - Teil 205. - Interview mit Berlin Music TV - Teil 204. - Interview mit Hiphop.de - "#waslos" Teil 203. - Interview mit Hiphop.de - "#waslos" Teil 102. - Unboxing der Deluxe-Edition01. - Interview mit Berlin Music TV - Teil 101. - Interview mit 16bars - Teil 1 - "Fotoalbum"Januar 201530. - Interview mit Backspin TV27. - Interview mit Rap.de25. - Veröffentlichung der Tracklist22. - Video-Ansage19. - Video-Ansage &amp; Forumspost15. - Interview mit ViceDezember 201412. - ForumspostOktober 201409. - Interview mit Backspin TV</t>
+          <t>Die wichtigsten Ereignisse der PromophaseFebruar 2015
+13. - Release
+12. - Interview mit All Good - Teil 2
+11. - 1. Single
+11. - Interview mit Noisey - Teil 2
+10. - Interview mit All Good - Teil 1
+09. - Interview mit Noisey - Teil 1
+06. - Interview mit 16bars - Teil 2
+05. - Interview mit Berlin Music TV - Teil 2
+04. - Interview mit Hiphop.de - "#waslos" Teil 2
+03. - Interview mit Hiphop.de - "#waslos" Teil 1
+02. - Unboxing der Deluxe-Edition
+01. - Interview mit Berlin Music TV - Teil 1
+01. - Interview mit 16bars - Teil 1 - "Fotoalbum"
+Januar 2015
+30. - Interview mit Backspin TV
+27. - Interview mit Rap.de
+25. - Veröffentlichung der Tracklist
+22. - Video-Ansage
+19. - Video-Ansage &amp; Forumspost
+15. - Interview mit Vice
+Dezember 2014
+12. - Forumspost
+Oktober 2014
+09. - Interview mit Backspin TV</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1417,7 +2230,42 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Geordnet nach gedissten PersonenKlicke auf die Buchstaben, um zu den Begriffen mit diesem Anfangsbuchstaben zu springen#    A    B    C    D    E    F    G    H    I    J    K    L    M      N    O    P    Q    R    S    T    U    V    W    X    Y    Z#A- Aggro Berlin- Alice SchwarzerBC- Casper- Christian von Stetten- CurseD- Dieter NuhrEF- FlerG- Gregor GysiH- Heinz BuschkowskyIJ- Joko WinterscheidtK- Kai Diekmann- Klaas  Heufer-Umlauf- Kay OneLM- Manuel Charr- Michel FriedmanN- NazarOP- Prinz Marcus von AnhaltQRS- Sami Khedira- Serdar SomuncuTUVWXYZ</t>
+          <t>Geordnet nach gedissten Personen
+Klicke auf die Buchstaben, um zu den Begriffen mit diesem Anfangsbuchstaben zu springen
+# A B C D E F G H I J K L M
+	N	O	P	Q	R	S	T	U	V	W	X	Y	Z
+#A
+- Aggro Berlin
+- Alice Schwarzer
+BC
+- Casper
+- Christian von Stetten
+- Curse
+D
+- Dieter Nuhr
+EF
+- Fler
+G
+- Gregor Gysi
+H
+- Heinz Buschkowsky
+IJ
+- Joko Winterscheidt
+K
+- Kai Diekmann
+- Klaas Heufer-Umlauf
+- Kay One
+LM
+- Manuel Charr
+- Michel Friedman
+N
+- Nazar
+OP
+- Prinz Marcus von Anhalt
+QRS
+- Sami Khedira
+- Serdar Somuncu
+TUVWXYZ</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
